--- a/game.xlsx
+++ b/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\wasteland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A86D34-377B-45ED-964B-735B6D3B02E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF06D278-C97E-45F7-B9E0-1E3C4A4DA6A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="3" r:id="rId1"/>
@@ -116,12 +116,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -130,10 +145,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,6 +238,806 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>472973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159595</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>563175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7502E1-55C7-412F-B424-8128D5675357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571876" y="3901973"/>
+          <a:ext cx="838250" cy="661702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>305693</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>386621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519337</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>563786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DAF330-E5C6-408A-9136-25ACF5FFE1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3957717" y="4387121"/>
+          <a:ext cx="213644" cy="177165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>602933</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>539829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606747</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D602952E-1413-4B5A-8D88-CAAB7C4236D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="602933" y="1111329"/>
+          <a:ext cx="611033" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109897</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373316</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>382603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FC6FD1-BD9E-4D1F-A792-B8BA4461E831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3761921" y="4154503"/>
+          <a:ext cx="263419" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>535781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12329</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>29051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EA090D-EB88-4E8A-B23A-18FE6C9ECD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7891700" y="2821781"/>
+          <a:ext cx="621692" cy="636270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44159</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>108347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BCAE4E-4A6E-4FB0-BE10-A2E72D986A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1845469" y="41672"/>
+          <a:ext cx="627565" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581502</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>543640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605659</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>36910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB47BEEC-3696-4DEC-BB95-A764A0625565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1795940" y="5115640"/>
+          <a:ext cx="631375" cy="636270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327422</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>522551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>223466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406675EA-B96E-4AEC-9B16-01FEF1AC360A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3979446" y="3951551"/>
+          <a:ext cx="259703" cy="272415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184546</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>345041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511451</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AC777B-631C-4093-B262-CB201FD386BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3827859" y="3774041"/>
+          <a:ext cx="326905" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>329448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>284310</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB697879-56CB-4678-904E-BE7736112310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3588660" y="4329948"/>
+          <a:ext cx="347674" cy="268605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330053</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597309</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>410824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738FB148-3E59-4DDB-942B-81BAFF07DC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3982077" y="4137004"/>
+          <a:ext cx="267256" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98535</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>462009</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301775E-E842-434A-8C8D-636A7FBDB048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4374932" y="3429000"/>
+          <a:ext cx="363474" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462588</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>405371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39227</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C21B2F-D311-4279-A3C7-371AE6AF446B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4128071" y="4405871"/>
+          <a:ext cx="187553" cy="179070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>405373</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>375285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>591021</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>565785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B718EE-3863-411D-ADA1-3E8B2680493E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8347252" y="3232785"/>
+          <a:ext cx="185648" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>420416</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602254</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FB6469-7343-4039-9CFE-0D1B7E41EC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2253157" y="85397"/>
+          <a:ext cx="181838" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>151087</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>564931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>545881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF7FFBA-366E-40BA-961C-FAE899B72E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1983828" y="564931"/>
+          <a:ext cx="363474" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -515,44 +1330,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6E6020-4573-4AEA-BED0-1D111BB5F77D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -725,628 +1540,628 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA246229-D39C-4F9F-AEA3-DDA15D0110A1}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="8.88671875" style="1"/>
+    <col min="1" max="14" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/game.xlsx
+++ b/game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\wasteland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF06D278-C97E-45F7-B9E0-1E3C4A4DA6A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1887E-D7D9-4DF5-A49B-E996D66CFA88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,16 +242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>535782</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>472973</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95661</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>437369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>159595</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>563175</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>332293</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>521856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -280,8 +280,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3571876" y="3901973"/>
-          <a:ext cx="838250" cy="661702"/>
+          <a:off x="8648454" y="1008869"/>
+          <a:ext cx="847546" cy="655987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -292,16 +292,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>305693</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>386621</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>535607</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>198026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>519337</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>563786</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>134527</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>371381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -330,8 +330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3957717" y="4387121"/>
-          <a:ext cx="213644" cy="177165"/>
+          <a:off x="9699314" y="1341026"/>
+          <a:ext cx="209834" cy="173355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -342,16 +342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>602933</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>539829</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>606747</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>35004</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>284868</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>245211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -380,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="602933" y="1111329"/>
-          <a:ext cx="611033" cy="638175"/>
+          <a:off x="8831942" y="180441"/>
+          <a:ext cx="616633" cy="636270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -392,16 +392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>109897</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154003</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390459</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>226261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373316</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>382603</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42964</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>454861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -430,7 +430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3761921" y="4154503"/>
+          <a:off x="10775993" y="1369261"/>
           <a:ext cx="263419" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -442,16 +442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>605075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>535781</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222171</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>227039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12329</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>29051</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246053</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>289904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -480,8 +480,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7891700" y="2821781"/>
-          <a:ext cx="621692" cy="636270"/>
+          <a:off x="11218619" y="227039"/>
+          <a:ext cx="634796" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -492,16 +492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>492968</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>41672</xdr:rowOff>
+      <xdr:rowOff>245310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44159</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519029</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>108347</xdr:rowOff>
+      <xdr:rowOff>310080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -530,8 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1845469" y="41672"/>
-          <a:ext cx="627565" cy="638175"/>
+          <a:off x="9656675" y="245310"/>
+          <a:ext cx="636975" cy="636270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -542,16 +542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581502</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>543640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53226</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>605659</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>36910</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -580,8 +580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1795940" y="5115640"/>
-          <a:ext cx="631375" cy="636270"/>
+          <a:off x="10438760" y="207770"/>
+          <a:ext cx="627450" cy="630555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,16 +592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327422</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>522551</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>119975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>172491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>587125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>223466</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387298</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>444906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -630,8 +630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3979446" y="3951551"/>
-          <a:ext cx="259703" cy="272415"/>
+          <a:off x="11116423" y="1315491"/>
+          <a:ext cx="267323" cy="272415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -642,16 +642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>184546</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>345041</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>412555</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>193955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>511451</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>97391</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134261</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>513995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -680,8 +680,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3827859" y="3774041"/>
-          <a:ext cx="326905" cy="323850"/>
+          <a:off x="11409003" y="1336955"/>
+          <a:ext cx="332620" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -692,16 +692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>545306</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>329448</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220668</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>284310</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>26553</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570586</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>436587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,8 +730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3588660" y="4329948"/>
-          <a:ext cx="347674" cy="268605"/>
+          <a:off x="9995289" y="1310982"/>
+          <a:ext cx="349918" cy="268605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,23 +742,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>330053</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>136504</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12088</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>597309</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>410824</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>383182</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>564537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
+        <xdr:cNvPr id="36" name="Picture 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738FB148-3E59-4DDB-942B-81BAFF07DC8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301775E-E842-434A-8C8D-636A7FBDB048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,8 +780,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3982077" y="4137004"/>
-          <a:ext cx="267256" cy="274320"/>
+          <a:off x="9175795" y="2305707"/>
+          <a:ext cx="371094" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,23 +792,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>98535</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442881</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>217630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>462009</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15710</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35">
+        <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301775E-E842-434A-8C8D-636A7FBDB048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C21B2F-D311-4279-A3C7-371AE6AF446B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -830,7 +830,257 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4374932" y="3429000"/>
+          <a:off x="9606588" y="2503630"/>
+          <a:ext cx="183743" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>455165</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22279</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>353674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FB6469-7343-4039-9CFE-0D1B7E41EC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9618872" y="1891009"/>
+          <a:ext cx="178028" cy="177165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8474</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>568544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>568544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF7FFBA-366E-40BA-961C-FAE899B72E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172181" y="1711544"/>
+          <a:ext cx="355854" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>460156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62C6910-2910-48DC-8FBA-418D645533CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10418379" y="1326931"/>
+          <a:ext cx="267254" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28181</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387845</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>567492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2104FD-05EE-4B75-8B06-EBECD61D96C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191888" y="2866827"/>
+          <a:ext cx="359664" cy="558165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>402888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A097AC5B-C2D9-4A14-BF0A-DA195807C639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9203121" y="3432810"/>
           <a:ext cx="363474" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -842,23 +1092,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>462588</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40268</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>405371</xdr:rowOff>
+      <xdr:rowOff>15042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>39227</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12941</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417077</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>563682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C21B2F-D311-4279-A3C7-371AE6AF446B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F34309A-C707-4486-8745-3A39C864C6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,7 +1117,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -880,8 +1130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4128071" y="4405871"/>
-          <a:ext cx="187553" cy="179070"/>
+          <a:off x="9203975" y="4015542"/>
+          <a:ext cx="376809" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,23 +1142,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>405373</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>375285</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59121</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>591021</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>565785</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>422595</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B718EE-3863-411D-ADA1-3E8B2680493E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16126446-8A45-4573-B91C-95B0F8E9C2A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +1167,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -930,8 +1180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8347252" y="3232785"/>
-          <a:ext cx="185648" cy="190500"/>
+          <a:off x="9222828" y="4591706"/>
+          <a:ext cx="363474" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,23 +1192,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>420416</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426983</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>602254</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266372</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608821</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>384612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40">
+        <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FB6469-7343-4039-9CFE-0D1B7E41EC28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D3B2ED-1610-417C-99DF-59E0EC3ECF9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +1217,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -980,7 +1230,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2253157" y="85397"/>
+          <a:off x="9590690" y="3061137"/>
           <a:ext cx="181838" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -992,23 +1242,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151087</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>564931</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430794</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>207448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514561</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>545881</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>610727</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>386518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42">
+        <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF7FFBA-366E-40BA-961C-FAE899B72E1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F4FABA-497D-455A-A65C-0F36AB3CF927}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1267,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1030,8 +1280,108 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1983828" y="564931"/>
-          <a:ext cx="363474" cy="552450"/>
+          <a:off x="9594501" y="3636448"/>
+          <a:ext cx="179933" cy="179070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421268</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608821</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>373381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFABA40-ADBA-450C-AF65-F6C187B92B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9584975" y="4187191"/>
+          <a:ext cx="187553" cy="186690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>436311</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14855</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>364906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F1080E-8509-4197-9B99-242C51573F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9600018" y="4757836"/>
+          <a:ext cx="189458" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA246229-D39C-4F9F-AEA3-DDA15D0110A1}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/game.xlsx
+++ b/game.xlsx
@@ -2,73 +2,480 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\wasteland\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1887E-D7D9-4DF5-A49B-E996D66CFA88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8F8F4-3FC0-4353-B3E3-A095A70A586C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="players" sheetId="3" r:id="rId1"/>
-    <sheet name="map" sheetId="2" r:id="rId2"/>
+    <sheet name="ui" sheetId="10" r:id="rId1"/>
+    <sheet name="map_tiles" sheetId="2" r:id="rId2"/>
+    <sheet name="resources" sheetId="5" r:id="rId3"/>
+    <sheet name="buildings" sheetId="6" r:id="rId4"/>
+    <sheet name="event_cards" sheetId="7" r:id="rId5"/>
+    <sheet name="player_cards" sheetId="8" r:id="rId6"/>
+    <sheet name="s_scavenge_vs_gather" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="buildable" localSheetId="4">#REF!</definedName>
+    <definedName name="buildable" localSheetId="5">#REF!</definedName>
+    <definedName name="buildable">map_tiles!$D$2:$D$10</definedName>
+    <definedName name="buildable_big" localSheetId="4">#REF!</definedName>
+    <definedName name="buildable_big" localSheetId="5">#REF!</definedName>
+    <definedName name="buildable_big">map_tiles!$E$2:$E$10</definedName>
+    <definedName name="direct_water_source" localSheetId="4">#REF!</definedName>
+    <definedName name="direct_water_source" localSheetId="5">#REF!</definedName>
+    <definedName name="direct_water_source">map_tiles!$G$2:$G$10</definedName>
+    <definedName name="names" localSheetId="4">#REF!</definedName>
+    <definedName name="names" localSheetId="5">#REF!</definedName>
+    <definedName name="names">map_tiles!$B$2:$B$10</definedName>
+    <definedName name="number" localSheetId="4">#REF!</definedName>
+    <definedName name="number" localSheetId="5">#REF!</definedName>
+    <definedName name="number">map_tiles!$C$2:$C$10</definedName>
+    <definedName name="traversable" localSheetId="4">#REF!</definedName>
+    <definedName name="traversable" localSheetId="5">#REF!</definedName>
+    <definedName name="traversable">map_tiles!$F$2:$F$10</definedName>
+    <definedName name="underground_water_source" localSheetId="4">#REF!</definedName>
+    <definedName name="underground_water_source" localSheetId="5">#REF!</definedName>
+    <definedName name="underground_water_source">map_tiles!$H$2:$H$10</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{2B83F0AC-8CC5-4011-B4B0-1F5BE2D93EB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rock and wood costs in yellow can be skipped if building in a building tile</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="136">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Rocks</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>buildable</t>
+  </si>
+  <si>
+    <t>buildable big</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>medicines</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>+1 to any collection dices. Breaks afterwards</t>
+  </si>
+  <si>
+    <t>+1 to any combat dice. One breaks after each battle. Will be captured by enemy if defeated</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>each survivor consumes 1 each turn. If not enough, that turn one survivor dies.</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>buildings. Use 3 to see either the next event or player card, no matter if not your turn</t>
+  </si>
+  <si>
+    <t>underground water</t>
+  </si>
+  <si>
+    <t>traversable</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>sum by number</t>
+  </si>
+  <si>
+    <t>percentage by number</t>
+  </si>
+  <si>
+    <t>direct water</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>farmacy</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>radio station</t>
+  </si>
+  <si>
+    <t>watch tower</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>hunter camp</t>
+  </si>
+  <si>
+    <t>lumber camp</t>
+  </si>
+  <si>
+    <t>quarry</t>
+  </si>
+  <si>
+    <t>source1</t>
+  </si>
+  <si>
+    <t>source2</t>
+  </si>
+  <si>
+    <t>Created at "farmacy"</t>
+  </si>
+  <si>
+    <t>Created at "workshop"</t>
+  </si>
+  <si>
+    <t>User cards</t>
+  </si>
+  <si>
+    <t>Created at "radio station" and "watch tower"</t>
+  </si>
+  <si>
+    <t>placeable in other buildings</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>Created at "well" or "water mill"</t>
+  </si>
+  <si>
+    <t>water cleaner</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>survivors assigned to function</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>*choose either tools or weapons</t>
+  </si>
+  <si>
+    <t>color in google maps (RGB)</t>
+  </si>
+  <si>
+    <t>(154,192,255)</t>
+  </si>
+  <si>
+    <t>(166,207,216)</t>
+  </si>
+  <si>
+    <t>(168,218,181)</t>
+  </si>
+  <si>
+    <t>(209,229,217)</t>
+  </si>
+  <si>
+    <t>(231,235,238)</t>
+  </si>
+  <si>
+    <t>(252,232,231)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>S</t>
+    <t>M</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>letter for maps</t>
+  </si>
+  <si>
+    <t>[154,192,255]</t>
+  </si>
+  <si>
+    <t>[166,207,216]</t>
+  </si>
+  <si>
+    <t>[168,218,181]</t>
+  </si>
+  <si>
+    <t>[209,229,217]</t>
+  </si>
+  <si>
+    <t>[231,235,238]</t>
+  </si>
+  <si>
+    <t>[252,232,231]</t>
+  </si>
+  <si>
+    <t>Gathering</t>
+  </si>
+  <si>
+    <t>Nothing happens</t>
+  </si>
+  <si>
+    <t>Sunny day</t>
+  </si>
+  <si>
+    <t>Rainy day</t>
+  </si>
+  <si>
+    <t>Every survivor that works consumes 2 water instead of one</t>
+  </si>
+  <si>
+    <t>Heatwave</t>
+  </si>
+  <si>
+    <t>All surface water freezes. You can now walk over it but cannot get water from it</t>
+  </si>
+  <si>
+    <t>Snow storm</t>
+  </si>
+  <si>
+    <t>Half of the survivors (rounding down) of each player get wounded</t>
+  </si>
+  <si>
+    <t>Sickness</t>
+  </si>
+  <si>
+    <t>Rats</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Subbuilding</t>
+  </si>
+  <si>
+    <t>You found a BRIDGE! Place it over a river</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>1 active scavenger dies</t>
+  </si>
+  <si>
+    <t>Fatal accident</t>
+  </si>
+  <si>
+    <t>1 active scavenger gets wounded</t>
+  </si>
+  <si>
+    <t>Accident</t>
+  </si>
+  <si>
+    <t>Scavenge</t>
+  </si>
+  <si>
+    <t>turns</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>gather_mult</t>
+  </si>
+  <si>
+    <t>scavenge</t>
+  </si>
+  <si>
+    <t>The study is done taking into account 3 survivors just designated to either gathering, gathering with multipliers or scavenging</t>
+  </si>
+  <si>
+    <t>Only the total of resources will be considered</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>gather_hybrid</t>
   </si>
   <si>
     <t>survivors</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>medicines</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>tools</t>
-  </si>
-  <si>
-    <t>weapons</t>
-  </si>
-  <si>
-    <t>information</t>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>It's clear that simple scavenging is better than simple gathering.</t>
+  </si>
+  <si>
+    <t>Nevertheless, scavenging is less reliable, you cannot choose which</t>
+  </si>
+  <si>
+    <t>resources to get and your scavengers might get hurt or killed.</t>
+  </si>
+  <si>
+    <t>The most productive way to get resources is to gather from</t>
+  </si>
+  <si>
+    <t>multiple tiles using a building, but that requires a building first.</t>
+  </si>
+  <si>
+    <t>The optimal strategy is then to start either scavenging or simple</t>
+  </si>
+  <si>
+    <t>gathering and start using buildings for gathering as soon as possible.</t>
+  </si>
+  <si>
+    <t>Survivors</t>
+  </si>
+  <si>
+    <t>3 survivors arrive! You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted by anyone they die.</t>
+  </si>
+  <si>
+    <t>each wounded survivor consumes 1 to be healed for the next turn. If not enough, the wounded don't heal and one of them dies.</t>
+  </si>
+  <si>
+    <t>Every player gets 10 water</t>
+  </si>
+  <si>
+    <t>All players loose 5 food and water and 1 from each other resource</t>
+  </si>
+  <si>
+    <t>Gathering. You can set up to 3 survivors to each gather rock from all tiles containing and around a "quarry"</t>
+  </si>
+  <si>
+    <t>Gathering. You can set up to 3 survivors to each gather food from all GRASS tiles containing and around a "farm" or from all WOOD tiles containing and around a "hunter camp"</t>
+  </si>
+  <si>
+    <t>Gathering. You can set up to 3 survivors to each gather wood from all WOOD tiles containing and around a "lumber camp"</t>
+  </si>
+  <si>
+    <t>plenty</t>
+  </si>
+  <si>
+    <t>Attacker</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>1D6</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>Imanol</t>
@@ -90,8 +497,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,21 +529,157 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -140,21 +698,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -164,6 +841,1306 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Resource strategies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gather_mult</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gather_hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_scavenge_vs_gather!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scavenge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>s_scavenge_vs_gather!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>337.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>382.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>427.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>472.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22B2-4A52-9A9B-260C0495702F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1332013151"/>
+        <c:axId val="1324315855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1332013151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324315855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1324315855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332013151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -177,16 +2154,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD009005-6C40-4D3D-9617-D09570EB215F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A810329-A003-4FAE-8B95-ED86EEE67D27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -195,7 +2172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8595360" cy="8595360"/>
+          <a:ext cx="8549640" cy="8001000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -255,10 +2232,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7502E1-55C7-412F-B424-8128D5675357}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF972EA5-F8A4-457A-98F1-28C87B3A3FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -280,8 +2257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648454" y="1008869"/>
-          <a:ext cx="847546" cy="655987"/>
+          <a:off x="8630061" y="1008869"/>
+          <a:ext cx="846232" cy="655987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -308,7 +2285,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DAF330-E5C6-408A-9136-25ACF5FFE1F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9278C5-C000-4C48-8095-CC289C2F947A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -330,8 +2307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9699314" y="1341026"/>
-          <a:ext cx="209834" cy="173355"/>
+          <a:off x="9679607" y="1341026"/>
+          <a:ext cx="208520" cy="173355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -355,10 +2332,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D602952E-1413-4B5A-8D88-CAAB7C4236D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA8D42B-099B-4590-96CD-6B2D2FB86594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -380,8 +2357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8831942" y="180441"/>
-          <a:ext cx="616633" cy="636270"/>
+          <a:off x="8813549" y="180441"/>
+          <a:ext cx="615319" cy="636270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,10 +2382,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FC6FD1-BD9E-4D1F-A792-B8BA4461E831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654815BC-D811-4279-A344-174000C351CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,8 +2407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10775993" y="1369261"/>
-          <a:ext cx="263419" cy="228600"/>
+          <a:off x="10753659" y="1369261"/>
+          <a:ext cx="262105" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -455,10 +2432,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EA090D-EB88-4E8A-B23A-18FE6C9ECD08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438A2154-B62F-457D-A585-B84E9AE5C51F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -480,8 +2457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11218619" y="227039"/>
-          <a:ext cx="634796" cy="634365"/>
+          <a:off x="11194971" y="227039"/>
+          <a:ext cx="633482" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,10 +2482,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BCAE4E-4A6E-4FB0-BE10-A2E72D986A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972BF9D7-D9D3-46E0-B295-5F0B7B9A2DCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -530,8 +2507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9656675" y="245310"/>
-          <a:ext cx="636975" cy="636270"/>
+          <a:off x="9636968" y="245310"/>
+          <a:ext cx="635661" cy="636270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,10 +2532,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB47BEEC-3696-4DEC-BB95-A764A0625565}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8631C0-6BD2-4F42-B27D-B0138F54979E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -580,8 +2557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10438760" y="207770"/>
-          <a:ext cx="627450" cy="630555"/>
+          <a:off x="10416426" y="207770"/>
+          <a:ext cx="626136" cy="630555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -605,10 +2582,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406675EA-B96E-4AEC-9B16-01FEF1AC360A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B477C12-0368-4CA9-85B5-71E90924B53B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -630,7 +2607,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11116423" y="1315491"/>
+          <a:off x="11092775" y="1315491"/>
           <a:ext cx="267323" cy="272415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -655,10 +2632,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AC777B-631C-4093-B262-CB201FD386BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C4BA98-F4E3-46F7-9900-3637E30B5F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -680,8 +2657,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11409003" y="1336955"/>
-          <a:ext cx="332620" cy="320040"/>
+          <a:off x="11385355" y="1336955"/>
+          <a:ext cx="331306" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,10 +2682,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB697879-56CB-4678-904E-BE7736112310}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3FBB41-9AF9-4D75-8120-8AC38B724BCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -730,7 +2707,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9995289" y="1310982"/>
+          <a:off x="9974268" y="1310982"/>
           <a:ext cx="349918" cy="268605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -743,22 +2720,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>12088</xdr:colOff>
+      <xdr:colOff>132954</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
+      <xdr:rowOff>67002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>383182</xdr:colOff>
+      <xdr:colOff>319799</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>564537</xdr:rowOff>
+      <xdr:rowOff>341322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301775E-E842-434A-8C8D-636A7FBDB048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B62B8FD-80CD-4E67-9EE1-D7931FF2D335}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,8 +2757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9175795" y="2305707"/>
-          <a:ext cx="371094" cy="544830"/>
+          <a:off x="9276954" y="2353002"/>
+          <a:ext cx="186845" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,22 +2770,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442881</xdr:colOff>
+      <xdr:colOff>369311</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>217630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15710</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551740</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>400510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C21B2F-D311-4279-A3C7-371AE6AF446B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E901DF41-D6DA-4D0F-8D7A-A97D2BFDDCC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -830,8 +2807,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9606588" y="2503630"/>
-          <a:ext cx="183743" cy="182880"/>
+          <a:off x="9513311" y="2503630"/>
+          <a:ext cx="182429" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,22 +2820,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>455165</xdr:colOff>
+      <xdr:colOff>355320</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>176509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22279</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532034</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>353674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FB6469-7343-4039-9CFE-0D1B7E41EC28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3151199D-71C0-4488-8EB9-F43BDC05BF62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -880,8 +2857,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9618872" y="1891009"/>
-          <a:ext cx="178028" cy="177165"/>
+          <a:off x="9499320" y="1891009"/>
+          <a:ext cx="176714" cy="177165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,22 +2870,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>8474</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>568544</xdr:rowOff>
+      <xdr:colOff>150359</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>364328</xdr:colOff>
+      <xdr:colOff>320777</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>568544</xdr:rowOff>
+      <xdr:rowOff>317346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF7FFBA-366E-40BA-961C-FAE899B72E1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F08DB5E-7207-4C80-A36F-3D7724568167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,8 +2907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9172181" y="1711544"/>
-          <a:ext cx="355854" cy="571500"/>
+          <a:off x="9294359" y="1757526"/>
+          <a:ext cx="170418" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,10 +2932,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62C6910-2910-48DC-8FBA-418D645533CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABC025A-5542-4A7C-B512-964234F39318}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +2957,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10418379" y="1326931"/>
+          <a:off x="10396045" y="1326931"/>
           <a:ext cx="267254" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -993,22 +2970,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>28181</xdr:colOff>
+      <xdr:colOff>149047</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9327</xdr:rowOff>
+      <xdr:rowOff>56622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>387845</xdr:colOff>
+      <xdr:colOff>325810</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>567492</xdr:rowOff>
+      <xdr:rowOff>330942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2104FD-05EE-4B75-8B06-EBECD61D96C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83050FF7-1DAB-468F-B92A-0E878D653747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,8 +3007,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191888" y="2866827"/>
-          <a:ext cx="359664" cy="558165"/>
+          <a:off x="9293047" y="2914122"/>
+          <a:ext cx="176763" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,22 +3020,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:colOff>160279</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>51105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>402888</xdr:colOff>
+      <xdr:colOff>340763</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>556260</xdr:rowOff>
+      <xdr:rowOff>325425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A097AC5B-C2D9-4A14-BF0A-DA195807C639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A5FE29-4B0A-4394-B84E-BA7D6AFA755F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,8 +3057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9203121" y="3432810"/>
-          <a:ext cx="363474" cy="552450"/>
+          <a:off x="9304279" y="3480105"/>
+          <a:ext cx="180484" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1093,22 +3070,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>40268</xdr:colOff>
+      <xdr:colOff>161133</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>15042</xdr:rowOff>
+      <xdr:rowOff>62337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>417077</xdr:colOff>
+      <xdr:colOff>349538</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>563682</xdr:rowOff>
+      <xdr:rowOff>336657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F34309A-C707-4486-8745-3A39C864C6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4E8D84-E742-4E93-AD74-10F5C7ACA692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,8 +3107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9203975" y="4015542"/>
-          <a:ext cx="376809" cy="548640"/>
+          <a:off x="9305133" y="4062837"/>
+          <a:ext cx="188405" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,22 +3120,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>59121</xdr:colOff>
+      <xdr:colOff>179987</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19706</xdr:rowOff>
+      <xdr:rowOff>67001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>422595</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>656</xdr:rowOff>
+      <xdr:colOff>360042</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>341321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
+        <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16126446-8A45-4573-B91C-95B0F8E9C2A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DCCDAF-F3EB-4B9E-BF8B-4FA5BFA3FD41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,8 +3157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9222828" y="4591706"/>
-          <a:ext cx="363474" cy="552450"/>
+          <a:off x="9323987" y="4639001"/>
+          <a:ext cx="180055" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,13 +3170,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>426983</xdr:colOff>
+      <xdr:colOff>353413</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>203637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>608821</xdr:colOff>
+      <xdr:colOff>535251</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>384612</xdr:rowOff>
     </xdr:to>
@@ -1208,7 +3185,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D3B2ED-1610-417C-99DF-59E0EC3ECF9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735645FD-9A67-49A3-88EB-39D50DE83B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +3207,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9590690" y="3061137"/>
+          <a:off x="9497413" y="3061137"/>
           <a:ext cx="181838" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1243,22 +3220,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>430794</xdr:colOff>
+      <xdr:colOff>357224</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>207448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>610727</xdr:colOff>
+      <xdr:colOff>537157</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>386518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
+        <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F4FABA-497D-455A-A65C-0F36AB3CF927}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71EF05C-C247-4D27-A57B-642457AD5E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +3257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9594501" y="3636448"/>
+          <a:off x="9501224" y="3636448"/>
           <a:ext cx="179933" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1293,22 +3270,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>421268</xdr:colOff>
+      <xdr:colOff>347698</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>186691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>608821</xdr:colOff>
+      <xdr:colOff>535251</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>373381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
+        <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFABA40-ADBA-450C-AF65-F6C187B92B5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FA8C09-DEED-454A-9650-D5D8B074C275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +3307,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9584975" y="4187191"/>
+          <a:off x="9491698" y="4187191"/>
           <a:ext cx="187553" cy="186690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1343,22 +3320,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>436311</xdr:colOff>
+      <xdr:colOff>362741</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>185836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>14855</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>550885</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>364906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
+        <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F1080E-8509-4197-9B99-242C51573F2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AF67E0-76B8-4A7B-8E90-1CE19A492400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,14 +3357,105 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9600018" y="4757836"/>
-          <a:ext cx="189458" cy="179070"/>
+          <a:off x="9506741" y="4757836"/>
+          <a:ext cx="188144" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>362607</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>262759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>98415</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E8E6CA-4F9E-4E88-A360-AA19C79C30FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11945007" y="262759"/>
+          <a:ext cx="345408" cy="547326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78FC665-0E6A-450E-89AC-44752775F0F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1404,44 +3472,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1468,14 +3536,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1502,6 +3571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1513,372 +3583,1632 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6E6020-4573-4AEA-BED0-1D111BB5F77D}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D0752-48DF-4D45-B912-C3CDBBD6BD64}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="8.88671875" style="50"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="43">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="T10" s="44">
+        <f t="shared" ref="T10:T11" ca="1" si="0">RANDBETWEEN(1,6)</f>
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="U10" s="45">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="43">
+        <f t="shared" ref="S11:S13" ca="1" si="1">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="46"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T12" s="47"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>9</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <v>9</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>9</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EDFAF7-3A54-4002-A96B-C2CBDBF3D89B}">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="15" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="31"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>32</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="14">
+        <v>3</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14">
+        <v>1</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="16"/>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>84</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <v>3</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="Q9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
+        <f>SUM(C2:C10)</f>
+        <v>196</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:O12" si="0">SUMPRODUCT(number,D2:D10)</f>
+        <v>156</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21">
+        <f>D12/$C$11</f>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" ref="E13:H13" si="1">E12/$C$11</f>
+        <v>0.59183673469387754</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>0.32653061224489793</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" ref="I13" si="2">I12/$C$11</f>
+        <v>2.0204081632653059</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" ref="J13" si="3">J12/$C$11</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" ref="K13" si="4">K12/$C$11</f>
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" ref="L13" si="5">L12/$C$11</f>
+        <v>0.59183673469387754</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" ref="M13" si="6">M12/$C$11</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" ref="N13" si="7">N12/$C$11</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" ref="O13" si="8">O12/$C$11</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1886,638 +5216,2183 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA246229-D39C-4F9F-AEA3-DDA15D0110A1}">
-  <dimension ref="A1:N16"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9966BAD7-0536-47B0-817F-25C9FA120D1E}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="36">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="37">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5531790B-02F5-4EEF-93DC-68D09484BB8E}">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D1" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+    </row>
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="25">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11">
+        <v>15</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="25">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="26">
+        <v>2</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="25">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="26">
+        <v>2</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>3</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="25">
+        <v>4</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="26">
+        <v>2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25">
+        <v>15</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="25">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="26">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>10</v>
+      </c>
+      <c r="I8" s="25">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="25">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="26">
+        <v>2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25">
+        <v>5</v>
+      </c>
+      <c r="I10" s="25">
+        <v>3</v>
+      </c>
+      <c r="J10" s="25">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="26">
+        <v>2</v>
+      </c>
+      <c r="G11" s="26">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="25">
+        <v>2</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="26">
+        <v>2</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="25">
+        <v>2</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5847270D-D196-4519-8625-107456740C86}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="33">
+        <f t="shared" ref="D2:D7" si="0">B2/SUM(B:B)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="33">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="33">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="33">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="33">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE295004-92D0-4869-98E3-E69FBF91F6CE}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="33">
+        <f t="shared" ref="D2:D23" si="0">B2/SUM(B:B)</f>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B2),"! You get ",15/3*resources!C2,"+",FLOOR(10/3*resources!C2,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WATER! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B3),"! You get ",15/3*resources!C3,"+",FLOOR(10/3*resources!C3,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find FOOD! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B4),"! You get ",15/3*resources!C4,"+",FLOOR(10/3*resources!C4,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find MEDICINES! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B5),"! You get ",15/3*resources!C5,"+",FLOOR(10/3*resources!C5,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find ROCK! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B6),"! You get ",15/3*resources!C6,"+",FLOOR(10/3*resources!C6,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WOOD! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B7),"! You get ",15/3*resources!C7,"+",FLOOR(10/3*resources!C7,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find TOOLS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B8),"! You get ",15/3*resources!C8,"+",FLOOR(10/3*resources!C8,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find WEAPONS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("You find ",UPPER(resources!B9),"! You get ",15/3*resources!C9,"+",FLOOR(10/3*resources!C9,1),"S, where S is the number of scavengers, if you have at least one active scavenger")</f>
+        <v>You find INFORMATION! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="33">
+        <f t="shared" si="0"/>
+        <v>2.7522935779816515E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.13761467889908258</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.11009174311926606</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="33">
+        <f t="shared" si="0"/>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B3),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WELL! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="0"/>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E15" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B4),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WATER CLEANER! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="33">
+        <f t="shared" si="0"/>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B5),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a FARMACY! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="33">
+        <f t="shared" si="0"/>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E17" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B6),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WORKSHOP! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="33">
+        <f t="shared" si="0"/>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B7),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a RADIO STATION! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="0"/>
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="E19" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B8),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a WATCH TOWER! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" si="0"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E20" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B9),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a FARM! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="33">
+        <f t="shared" si="0"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E21" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B10),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a HUNTER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="33">
+        <f t="shared" si="0"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B11),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a LUMBER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="33">
+        <f t="shared" si="0"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.CONCAT("You found a ", UPPER(buildings!B12),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
+        <v>You found a QUARRY! Place it in whichever building (not necessarily yours) or tile you want</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="D25" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE578704-8EA0-4F61-A644-20F07D719928}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>6*3</f>
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <f>(G2+H2)/2</f>
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f>(15+3*10)/3*0.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3">
+        <f t="shared" ref="B3:B26" si="0">B2+G$2*$K$2</f>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C26" si="1">C2+H$2*$K$2</f>
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D26" si="2">D2+I$2*$K$2</f>
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E26" si="3">E2+J$2*$K$2</f>
+        <v>22.5</v>
+      </c>
+      <c r="F3">
+        <f>F2+$K$2*$J$2</f>
+        <v>22.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F7" si="4">F3+$K$2*$J$2</f>
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>67.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>67.5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>112.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>112.5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="F8">
+        <f>F7+15*0.5+2*6*G8*$K$2</f>
+        <v>228</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="R8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>157.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F26" si="5">F8+15*0.5+2*6*G9*$K$2</f>
+        <v>343.5</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="R9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>459</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>486</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>202.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>574.5</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>690</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>594</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>247.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>805.5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>921</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>702</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>292.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>1036.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>504</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1152</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>337.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>1267.5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>1383</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>918</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>1498.5</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>972</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>648</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>1614</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1026</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>427.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>1729.5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>1845</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1134</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>756</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>472.5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>1960.5</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1188</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>792</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>2076</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1242</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>828</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>517.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>2191.5</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1296</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>864</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>2307</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/game.xlsx
+++ b/game.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8F8F4-3FC0-4353-B3E3-A095A70A586C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD015957-B9C7-4101-8228-C1EB4383B041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,9 +782,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -824,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,9 +2226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>332293</xdr:colOff>
+      <xdr:colOff>330388</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>521856</xdr:rowOff>
+      <xdr:rowOff>518046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2276,9 +2276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>134527</xdr:colOff>
+      <xdr:colOff>130717</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>371381</xdr:rowOff>
+      <xdr:rowOff>369476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2326,9 +2326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>284868</xdr:colOff>
+      <xdr:colOff>288678</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>245211</xdr:rowOff>
+      <xdr:rowOff>249021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2376,7 +2376,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>42964</xdr:colOff>
+      <xdr:colOff>44869</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>454861</xdr:rowOff>
     </xdr:to>
@@ -2426,9 +2426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>246053</xdr:colOff>
+      <xdr:colOff>249863</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>289904</xdr:rowOff>
+      <xdr:rowOff>286094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2476,9 +2476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>519029</xdr:colOff>
+      <xdr:colOff>515219</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>310080</xdr:rowOff>
+      <xdr:rowOff>311985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2526,7 +2526,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>69762</xdr:colOff>
+      <xdr:colOff>67857</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>266825</xdr:rowOff>
     </xdr:to>
@@ -2576,9 +2576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>387298</xdr:colOff>
+      <xdr:colOff>389203</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>444906</xdr:rowOff>
+      <xdr:rowOff>441096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2626,9 +2626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>134261</xdr:colOff>
+      <xdr:colOff>130451</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>513995</xdr:rowOff>
+      <xdr:rowOff>517805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2678,7 +2678,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>570586</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>436587</xdr:rowOff>
+      <xdr:rowOff>440397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2726,7 +2726,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>319799</xdr:colOff>
+      <xdr:colOff>323609</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>341322</xdr:rowOff>
     </xdr:to>
@@ -2776,9 +2776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>551740</xdr:colOff>
+      <xdr:colOff>555550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>400510</xdr:rowOff>
+      <xdr:rowOff>396700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2828,7 +2828,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>532034</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>353674</xdr:rowOff>
+      <xdr:rowOff>355579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2876,9 +2876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>320777</xdr:colOff>
+      <xdr:colOff>324587</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>317346</xdr:rowOff>
+      <xdr:rowOff>321156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2926,7 +2926,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>300099</xdr:colOff>
+      <xdr:colOff>298194</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>460156</xdr:rowOff>
     </xdr:to>
@@ -2976,9 +2976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>325810</xdr:colOff>
+      <xdr:colOff>322000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>330942</xdr:rowOff>
+      <xdr:rowOff>327132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3028,7 +3028,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>340763</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>325425</xdr:rowOff>
+      <xdr:rowOff>321615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3076,9 +3076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>349538</xdr:colOff>
+      <xdr:colOff>351443</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>336657</xdr:rowOff>
+      <xdr:rowOff>334752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3126,7 +3126,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>360042</xdr:colOff>
+      <xdr:colOff>363852</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>341321</xdr:rowOff>
     </xdr:to>
@@ -3228,7 +3228,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>537157</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>386518</xdr:rowOff>
+      <xdr:rowOff>388423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3278,7 +3278,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>535251</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>373381</xdr:rowOff>
+      <xdr:rowOff>371476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3326,9 +3326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>550885</xdr:colOff>
+      <xdr:colOff>554695</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>364906</xdr:rowOff>
+      <xdr:rowOff>361096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3376,9 +3376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>98415</xdr:colOff>
+      <xdr:colOff>94605</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>238585</xdr:rowOff>
+      <xdr:rowOff>240490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3726,477 +3726,477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D0752-48DF-4D45-B912-C3CDBBD6BD64}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="8.88671875" style="50"/>
+    <col min="1" max="14" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="39" t="s">
+      <c r="E1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="A2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="39" t="s">
+      <c r="F2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="39" t="s">
+      <c r="A3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>68</v>
+      <c r="A4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="A5" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="53" t="s">
         <v>67</v>
       </c>
+      <c r="N5" s="53" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="39" t="s">
+      <c r="A6" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="53" t="s">
         <v>67</v>
       </c>
+      <c r="N6" s="53" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="39" t="s">
+      <c r="A7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="39" t="s">
+      <c r="K7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="L7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="53" t="s">
         <v>67</v>
       </c>
+      <c r="N7" s="53" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="39" t="s">
+      <c r="A8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="39" t="s">
+      <c r="L8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="39" t="s">
+      <c r="A9" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="53" t="s">
         <v>68</v>
       </c>
       <c r="R9" s="12"/>
-      <c r="S9" s="40" t="s">
+      <c r="S9" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="T9" s="41" t="s">
+      <c r="T9" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="U9" s="42" t="s">
+      <c r="U9" s="41" t="s">
         <v>129</v>
       </c>
       <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="39" t="s">
+      <c r="A10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="53" t="s">
         <v>68</v>
       </c>
       <c r="R10" s="12"/>
-      <c r="S10" s="43">
+      <c r="S10" s="42">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
-      </c>
-      <c r="T10" s="44">
+        <v>3</v>
+      </c>
+      <c r="T10" s="43">
         <f t="shared" ref="T10:T11" ca="1" si="0">RANDBETWEEN(1,6)</f>
-        <v>6</v>
-      </c>
-      <c r="U10" s="45">
+        <v>2</v>
+      </c>
+      <c r="U10" s="44">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V10" s="12"/>
       <c r="W10" t="s">
@@ -4204,205 +4204,205 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="39" t="s">
+      <c r="A11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="39" t="s">
+      <c r="F11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="53" t="s">
         <v>68</v>
       </c>
       <c r="R11" s="12"/>
-      <c r="S11" s="43">
+      <c r="S11" s="42">
         <f t="shared" ref="S11:S13" ca="1" si="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-      <c r="T11" s="44">
+        <v>3</v>
+      </c>
+      <c r="T11" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U11" s="46"/>
+        <v>6</v>
+      </c>
+      <c r="U11" s="45"/>
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="39" t="s">
+      <c r="A12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="39" t="s">
+      <c r="H12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="53" t="s">
         <v>68</v>
       </c>
       <c r="R12" s="12"/>
-      <c r="S12" s="43">
+      <c r="S12" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="46"/>
+        <v>4</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="45"/>
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="39" t="s">
+      <c r="A13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="39" t="s">
+      <c r="G13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="53" t="s">
         <v>68</v>
       </c>
       <c r="R13" s="12"/>
-      <c r="S13" s="48">
+      <c r="S13" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" s="18"/>
-      <c r="U13" s="49"/>
+      <c r="U13" s="48"/>
       <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="39" t="s">
+      <c r="A14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="53" t="s">
         <v>68</v>
       </c>
       <c r="R14" s="12"/>
@@ -5422,25 +5422,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -6639,12 +6639,12 @@
       <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="1" t="s">
         <v>109</v>
       </c>

--- a/game.xlsx
+++ b/game.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD015957-B9C7-4101-8228-C1EB4383B041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846EBA98-C4EC-465F-AAC3-9565C8B1CA06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -475,9 +475,6 @@
     <t>1D6</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Imanol</t>
   </si>
   <si>
@@ -491,6 +488,15 @@
   </si>
   <si>
     <t>Caroline</t>
+  </si>
+  <si>
+    <t>wounded</t>
+  </si>
+  <si>
+    <t>idlers</t>
+  </si>
+  <si>
+    <t>points</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -813,6 +819,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,9 +834,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,9 +2238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>330388</xdr:colOff>
+      <xdr:colOff>326578</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>518046</xdr:rowOff>
+      <xdr:rowOff>514236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2276,9 +2288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>130717</xdr:colOff>
+      <xdr:colOff>134527</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>369476</xdr:rowOff>
+      <xdr:rowOff>365666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2326,9 +2338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>288678</xdr:colOff>
+      <xdr:colOff>284868</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>249021</xdr:rowOff>
+      <xdr:rowOff>245211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2376,7 +2388,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>44869</xdr:colOff>
+      <xdr:colOff>58204</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>454861</xdr:rowOff>
     </xdr:to>
@@ -2426,9 +2438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>249863</xdr:colOff>
+      <xdr:colOff>246053</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>286094</xdr:rowOff>
+      <xdr:rowOff>282284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2476,9 +2488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>515219</xdr:colOff>
+      <xdr:colOff>511409</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>311985</xdr:rowOff>
+      <xdr:rowOff>325320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2526,7 +2538,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>67857</xdr:colOff>
+      <xdr:colOff>60237</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>266825</xdr:rowOff>
     </xdr:to>
@@ -2576,9 +2588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>389203</xdr:colOff>
+      <xdr:colOff>396823</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>441096</xdr:rowOff>
+      <xdr:rowOff>437286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2626,9 +2638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>130451</xdr:colOff>
+      <xdr:colOff>134261</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>517805</xdr:rowOff>
+      <xdr:rowOff>513995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2678,7 +2690,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>570586</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>440397</xdr:rowOff>
+      <xdr:rowOff>436587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2726,7 +2738,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>323609</xdr:colOff>
+      <xdr:colOff>327419</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>341322</xdr:rowOff>
     </xdr:to>
@@ -2776,9 +2788,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>555550</xdr:colOff>
+      <xdr:colOff>551740</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>396700</xdr:rowOff>
+      <xdr:rowOff>400510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2828,7 +2840,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>532034</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>355579</xdr:rowOff>
+      <xdr:rowOff>359389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2876,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>324587</xdr:colOff>
+      <xdr:colOff>320777</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>321156</xdr:rowOff>
+      <xdr:rowOff>324966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2926,7 +2938,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>298194</xdr:colOff>
+      <xdr:colOff>284859</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>460156</xdr:rowOff>
     </xdr:to>
@@ -2976,9 +2988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>322000</xdr:colOff>
+      <xdr:colOff>325810</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>327132</xdr:rowOff>
+      <xdr:rowOff>323322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3028,7 +3040,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>340763</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>321615</xdr:rowOff>
+      <xdr:rowOff>325425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3076,9 +3088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>351443</xdr:colOff>
+      <xdr:colOff>359063</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>334752</xdr:rowOff>
+      <xdr:rowOff>327132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3126,7 +3138,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>363852</xdr:colOff>
+      <xdr:colOff>360042</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>341321</xdr:rowOff>
     </xdr:to>
@@ -3228,7 +3240,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>537157</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>388423</xdr:rowOff>
+      <xdr:rowOff>401758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3278,7 +3290,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>535251</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>371476</xdr:rowOff>
+      <xdr:rowOff>363856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3326,9 +3338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>554695</xdr:colOff>
+      <xdr:colOff>550885</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>361096</xdr:rowOff>
+      <xdr:rowOff>364906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3376,9 +3388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>94605</xdr:colOff>
+      <xdr:colOff>98415</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>240490</xdr:rowOff>
+      <xdr:rowOff>244300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3724,10 +3736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D0752-48DF-4D45-B912-C3CDBBD6BD64}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3735,875 +3747,950 @@
     <col min="1" max="14" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="53" t="s">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="53" t="s">
+      <c r="E1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="53" t="s">
+      <c r="F2" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="F3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="53" t="s">
+      <c r="G4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="53" t="s">
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="53" t="s">
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="53" t="s">
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="53" t="s">
+      <c r="L8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="53" t="s">
+      <c r="N8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="53" t="s">
+      <c r="H9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>68</v>
-      </c>
+      <c r="M9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="11"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="39" t="s">
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="Q10" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="R10" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="V9" s="12"/>
-    </row>
-    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="42">
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="42">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
-      </c>
-      <c r="T10" s="43">
-        <f t="shared" ref="T10:T11" ca="1" si="0">RANDBETWEEN(1,6)</f>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="43">
+        <f t="shared" ref="Q11:Q12" ca="1" si="0">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="44">
+        <f ca="1">RANDBETWEEN(1,6)</f>
         <v>2</v>
       </c>
-      <c r="U10" s="44">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="W10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="53" t="s">
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="42">
-        <f t="shared" ref="S11:S13" ca="1" si="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
-      </c>
-      <c r="T11" s="43">
+      <c r="H12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="42">
+        <f t="shared" ref="P12:P14" ca="1" si="1">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="43">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="U11" s="45"/>
-      <c r="V11" s="12"/>
-    </row>
-    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="53" t="s">
+      <c r="R12" s="45"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="42">
+      <c r="G13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="45"/>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="12"/>
-    </row>
-    <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O15" s="1" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="B15" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="D15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="E15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="F15" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="G15" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="H15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="I15" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="J15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="K15" s="56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="L15" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12">
+        <v>4</v>
+      </c>
+      <c r="H16" s="12">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>5</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>3</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="Q16">
+      <c r="C17" s="13">
         <v>3</v>
       </c>
-      <c r="R16">
+      <c r="D17" s="11">
         <v>9</v>
       </c>
-      <c r="S16">
+      <c r="E17" s="12">
         <v>9</v>
       </c>
-      <c r="T16">
+      <c r="F17" s="12">
         <v>4</v>
       </c>
-      <c r="U16">
+      <c r="G17" s="12">
         <v>4</v>
       </c>
-      <c r="V16">
+      <c r="H17" s="12">
         <v>4</v>
       </c>
-      <c r="W16">
+      <c r="I17" s="12">
         <v>5</v>
       </c>
-      <c r="Y16">
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="15:25" x14ac:dyDescent="0.3">
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>3</v>
+      </c>
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q17">
+      <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="R17">
+      <c r="D18" s="11">
         <v>9</v>
       </c>
-      <c r="S17">
+      <c r="E18" s="12">
         <v>9</v>
       </c>
-      <c r="T17">
+      <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="U17">
+      <c r="G18" s="12">
         <v>4</v>
       </c>
-      <c r="V17">
+      <c r="H18" s="12">
         <v>4</v>
       </c>
-      <c r="W17">
+      <c r="I18" s="12">
         <v>5</v>
       </c>
-      <c r="Y17">
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="15:25" x14ac:dyDescent="0.3">
-      <c r="O18">
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
         <v>3</v>
       </c>
-      <c r="P18" t="s">
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="Q18">
+      <c r="C19" s="13">
         <v>3</v>
       </c>
-      <c r="R18">
+      <c r="D19" s="11">
         <v>9</v>
       </c>
-      <c r="S18">
+      <c r="E19" s="12">
         <v>9</v>
       </c>
-      <c r="T18">
+      <c r="F19" s="12">
         <v>4</v>
       </c>
-      <c r="U18">
+      <c r="G19" s="12">
         <v>4</v>
       </c>
-      <c r="V18">
+      <c r="H19" s="12">
         <v>4</v>
       </c>
-      <c r="W18">
+      <c r="I19" s="12">
         <v>5</v>
       </c>
-      <c r="Y18">
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="15:25" x14ac:dyDescent="0.3">
-      <c r="O19">
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>3</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="48">
+        <v>3</v>
+      </c>
+      <c r="D20" s="17">
+        <v>9</v>
+      </c>
+      <c r="E20" s="18">
+        <v>9</v>
+      </c>
+      <c r="F20" s="18">
         <v>4</v>
       </c>
-      <c r="P19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19">
+      <c r="G20" s="18">
+        <v>4</v>
+      </c>
+      <c r="H20" s="18">
+        <v>4</v>
+      </c>
+      <c r="I20" s="18">
+        <v>5</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>5</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="48">
         <v>3</v>
       </c>
-      <c r="R19">
-        <v>9</v>
-      </c>
-      <c r="S19">
-        <v>9</v>
-      </c>
-      <c r="T19">
-        <v>4</v>
-      </c>
-      <c r="U19">
-        <v>4</v>
-      </c>
-      <c r="V19">
-        <v>4</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-      <c r="Y19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="15:25" x14ac:dyDescent="0.3">
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>9</v>
-      </c>
-      <c r="S20">
-        <v>9</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>4</v>
-      </c>
-      <c r="V20">
-        <v>4</v>
-      </c>
-      <c r="W20">
-        <v>5</v>
-      </c>
-      <c r="Y20">
-        <v>5</v>
+      <c r="N20" s="48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5422,25 +5509,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -6639,12 +6726,12 @@
       <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1" t="s">
         <v>109</v>
       </c>

--- a/game.xlsx
+++ b/game.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846EBA98-C4EC-465F-AAC3-9565C8B1CA06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B57D0B-DC8F-4B9E-B30D-0960A78D6821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="10" r:id="rId1"/>
@@ -442,9 +442,6 @@
     <t>Survivors</t>
   </si>
   <si>
-    <t>3 survivors arrive! You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted by anyone they die.</t>
-  </si>
-  <si>
     <t>each wounded survivor consumes 1 to be healed for the next turn. If not enough, the wounded don't heal and one of them dies.</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>points</t>
+  </si>
+  <si>
+    <t>3+R survivors arrive! (R=number of radio stations you possess). You can choose not to take them in and they go to the next player to you, which also has the same choice. If they aren't accepted by anyone they die.</t>
   </si>
 </sst>
 </file>
@@ -825,6 +825,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,9 +837,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,15 +2232,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95661</xdr:colOff>
+      <xdr:colOff>486186</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>437369</xdr:rowOff>
+      <xdr:rowOff>475469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>326578</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107503</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>514236</xdr:rowOff>
+      <xdr:rowOff>552336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2269,8 +2269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8630061" y="1008869"/>
-          <a:ext cx="846232" cy="655987"/>
+          <a:off x="8753886" y="1046969"/>
+          <a:ext cx="840517" cy="648367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2281,16 +2281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>535607</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335582</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>198026</xdr:rowOff>
+      <xdr:rowOff>388526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>134527</xdr:colOff>
+      <xdr:colOff>544102</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>365666</xdr:rowOff>
+      <xdr:rowOff>556166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2319,8 +2319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9679607" y="1341026"/>
-          <a:ext cx="208520" cy="173355"/>
+          <a:off x="9822482" y="1531526"/>
+          <a:ext cx="208520" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2331,16 +2331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>279149</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2924</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180441</xdr:rowOff>
+      <xdr:rowOff>8991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>284868</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8643</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>245211</xdr:rowOff>
+      <xdr:rowOff>73761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2369,7 +2369,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8813549" y="180441"/>
+          <a:off x="8880224" y="8991"/>
           <a:ext cx="615319" cy="636270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2382,15 +2382,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>390459</xdr:colOff>
+      <xdr:colOff>57084</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>226261</xdr:rowOff>
+      <xdr:rowOff>188161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>58204</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>334429</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>454861</xdr:rowOff>
+      <xdr:rowOff>416761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2419,8 +2419,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10753659" y="1369261"/>
-          <a:ext cx="262105" cy="228600"/>
+          <a:off x="10153584" y="1331161"/>
+          <a:ext cx="277345" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2432,15 +2432,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>222171</xdr:colOff>
+      <xdr:colOff>3096</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>227039</xdr:rowOff>
+      <xdr:rowOff>17489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>246053</xdr:colOff>
+      <xdr:colOff>26978</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>282284</xdr:rowOff>
+      <xdr:rowOff>72734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2469,8 +2469,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11194971" y="227039"/>
-          <a:ext cx="633482" cy="634365"/>
+          <a:off x="10709196" y="17489"/>
+          <a:ext cx="633482" cy="626745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2481,16 +2481,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>492968</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16718</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>245310</xdr:rowOff>
+      <xdr:rowOff>16710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>511409</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>35159</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>325320</xdr:rowOff>
+      <xdr:rowOff>96720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2519,8 +2519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9636968" y="245310"/>
-          <a:ext cx="635661" cy="636270"/>
+          <a:off x="9503618" y="16710"/>
+          <a:ext cx="628041" cy="651510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2532,15 +2532,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>53226</xdr:colOff>
+      <xdr:colOff>15126</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>207770</xdr:rowOff>
+      <xdr:rowOff>26795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>60237</xdr:colOff>
+      <xdr:colOff>22137</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>266825</xdr:rowOff>
+      <xdr:rowOff>85850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2569,8 +2569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10416426" y="207770"/>
-          <a:ext cx="626136" cy="630555"/>
+          <a:off x="10111626" y="26795"/>
+          <a:ext cx="616611" cy="630555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2582,15 +2582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>119975</xdr:colOff>
+      <xdr:colOff>72350</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>172491</xdr:rowOff>
+      <xdr:rowOff>10566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>396823</xdr:colOff>
+      <xdr:colOff>349198</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>437286</xdr:rowOff>
+      <xdr:rowOff>275361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2619,8 +2619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11092775" y="1315491"/>
-          <a:ext cx="267323" cy="272415"/>
+          <a:off x="10778450" y="1153566"/>
+          <a:ext cx="276848" cy="264795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2632,15 +2632,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>412555</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>193955</xdr:rowOff>
+      <xdr:colOff>260155</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>527330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>134261</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>591461</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>513995</xdr:rowOff>
+      <xdr:rowOff>275870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2669,7 +2669,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11385355" y="1336955"/>
+          <a:off x="10966255" y="1098830"/>
           <a:ext cx="331306" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2682,15 +2682,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>220668</xdr:colOff>
+      <xdr:colOff>11118</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>167982</xdr:rowOff>
+      <xdr:rowOff>329907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>570586</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>436587</xdr:rowOff>
+      <xdr:colOff>361036</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2719,7 +2719,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9974268" y="1310982"/>
+          <a:off x="9498018" y="1472907"/>
           <a:ext cx="349918" cy="268605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2782,15 +2782,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>369311</xdr:colOff>
+      <xdr:colOff>426461</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>217630</xdr:rowOff>
+      <xdr:rowOff>8080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>551740</xdr:colOff>
+      <xdr:colOff>608890</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>400510</xdr:rowOff>
+      <xdr:rowOff>190960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2819,7 +2819,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9513311" y="2503630"/>
+          <a:off x="9303761" y="2294080"/>
           <a:ext cx="182429" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2832,15 +2832,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>355320</xdr:colOff>
+      <xdr:colOff>431520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>176509</xdr:rowOff>
+      <xdr:rowOff>5059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>532034</xdr:colOff>
+      <xdr:colOff>608234</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>359389</xdr:rowOff>
+      <xdr:rowOff>187939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2869,8 +2869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9499320" y="1891009"/>
-          <a:ext cx="176714" cy="177165"/>
+          <a:off x="9308820" y="1719559"/>
+          <a:ext cx="176714" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2932,15 +2932,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>32845</xdr:colOff>
+      <xdr:colOff>280495</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
+      <xdr:rowOff>164881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>284859</xdr:colOff>
+      <xdr:colOff>532509</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>460156</xdr:rowOff>
+      <xdr:rowOff>441106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2969,8 +2969,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10396045" y="1326931"/>
-          <a:ext cx="267254" cy="276225"/>
+          <a:off x="10376995" y="1307881"/>
+          <a:ext cx="252014" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3182,15 +3182,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>353413</xdr:colOff>
+      <xdr:colOff>429613</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>203637</xdr:rowOff>
+      <xdr:rowOff>32187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>535251</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1851</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>384612</xdr:rowOff>
+      <xdr:rowOff>213162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3219,7 +3219,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9497413" y="3061137"/>
+          <a:off x="9306913" y="2889687"/>
           <a:ext cx="181838" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3232,15 +3232,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>357224</xdr:colOff>
+      <xdr:colOff>433424</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>207448</xdr:rowOff>
+      <xdr:rowOff>35998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>537157</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3757</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>401758</xdr:rowOff>
+      <xdr:rowOff>230308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3269,8 +3269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9501224" y="3636448"/>
-          <a:ext cx="179933" cy="179070"/>
+          <a:off x="9310724" y="3464998"/>
+          <a:ext cx="179933" cy="194310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3282,15 +3282,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>347698</xdr:colOff>
+      <xdr:colOff>423898</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>186691</xdr:rowOff>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>535251</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1851</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>363856</xdr:rowOff>
+      <xdr:rowOff>192406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3319,8 +3319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9491698" y="4187191"/>
-          <a:ext cx="187553" cy="186690"/>
+          <a:off x="9301198" y="4015741"/>
+          <a:ext cx="187553" cy="177165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3332,15 +3332,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>362741</xdr:colOff>
+      <xdr:colOff>438941</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>185836</xdr:rowOff>
+      <xdr:rowOff>14386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>550885</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17485</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>364906</xdr:rowOff>
+      <xdr:rowOff>193456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3369,7 +3369,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9506741" y="4757836"/>
+          <a:off x="9316241" y="4586386"/>
           <a:ext cx="188144" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3382,15 +3382,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>362607</xdr:colOff>
+      <xdr:colOff>153057</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>262759</xdr:rowOff>
+      <xdr:rowOff>5584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>98415</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>244300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>498465</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>558625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3419,8 +3419,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11945007" y="262759"/>
-          <a:ext cx="345408" cy="547326"/>
+          <a:off x="11468757" y="5584"/>
+          <a:ext cx="345408" cy="553041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3738,16 +3738,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D0752-48DF-4D45-B912-C3CDBBD6BD64}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="8.88671875" style="49"/>
+    <col min="1" max="14" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>68</v>
       </c>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>68</v>
       </c>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>69</v>
       </c>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>68</v>
       </c>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>68</v>
       </c>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>68</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>68</v>
       </c>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>68</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="R9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>68</v>
       </c>
@@ -4199,17 +4199,17 @@
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="R10" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="R10" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>68</v>
       </c>
@@ -4255,19 +4255,19 @@
       <c r="O11" s="11"/>
       <c r="P11" s="42">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="43">
         <f t="shared" ref="Q11:Q12" ca="1" si="0">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11" s="44">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>68</v>
       </c>
@@ -4313,16 +4313,16 @@
       <c r="O12" s="11"/>
       <c r="P12" s="42">
         <f t="shared" ref="P12:P14" ca="1" si="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R12" s="45"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>68</v>
       </c>
@@ -4368,13 +4368,13 @@
       <c r="O13" s="11"/>
       <c r="P13" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="46"/>
       <c r="R13" s="45"/>
       <c r="V13" s="12"/>
     </row>
-    <row r="14" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>68</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="48"/>
@@ -4429,56 +4429,56 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="N15" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="N15" s="57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="13">
         <v>3</v>
@@ -4517,12 +4517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
@@ -4561,12 +4561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="13">
         <v>3</v>
@@ -4605,12 +4605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>4</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="13">
         <v>3</v>
@@ -4649,12 +4649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="48">
         <v>3</v>
@@ -4707,12 +4707,12 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="15" width="5.77734375" customWidth="1"/>
+    <col min="4" max="15" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="U1" s="31"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>3</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>4</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>5</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>6</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>7</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>8</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>9</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>10</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
@@ -5188,7 +5188,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>31</v>
       </c>
@@ -5311,15 +5311,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="32.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>33</v>
@@ -5339,7 +5339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -5373,11 +5373,11 @@
         <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>79</v>
@@ -5397,7 +5397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5411,11 +5411,11 @@
         <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5429,11 +5429,11 @@
         <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5506,30 +5506,30 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D1" s="52" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-    </row>
-    <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+    </row>
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5622,7 +5622,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5858,7 +5858,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -5970,7 +5970,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -5987,7 +5987,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -6004,7 +6004,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -6021,7 +6021,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -6038,7 +6038,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -6055,7 +6055,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -6072,7 +6072,7 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -6107,9 +6107,9 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -6141,10 +6141,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -6213,10 +6213,10 @@
         <v>0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="32"/>
     </row>
   </sheetData>
@@ -6246,13 +6246,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE295004-92D0-4869-98E3-E69FBF91F6CE}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>You find WATER! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>You find FOOD! You get 15+10S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>You find MEDICINES! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>You find ROCK! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>You find WOOD! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>You find TOOLS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>You find WEAPONS! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>You find INFORMATION! You get 5+3S, where S is the number of scavengers, if you have at least one active scavenger</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>9</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>10</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -6472,10 +6472,10 @@
         <v>0.13761467889908258</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>You found a WELL! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>You found a WATER CLEANER! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>15</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>You found a FARMACY! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>You found a WORKSHOP! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>17</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>You found a RADIO STATION! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>You found a FARM! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>You found a HUNTER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>21</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>You found a LUMBER CAMP! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>22</v>
       </c>
@@ -6684,11 +6684,11 @@
         <v>You found a QUARRY! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="D25" s="33"/>
     </row>
@@ -6705,9 +6705,9 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -6726,17 +6726,17 @@
       <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>9</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>10</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>15</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>17</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>21</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>22</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>23</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>24</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>25</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
     </row>
   </sheetData>

--- a/game.xlsx
+++ b/game.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A576A-2315-4B6E-9C57-DFE3F6246830}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9D790-4410-41BB-9434-3CD42876B00F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="10" r:id="rId1"/>
@@ -21,32 +21,32 @@
   <definedNames>
     <definedName name="buildable" localSheetId="4">#REF!</definedName>
     <definedName name="buildable" localSheetId="5">#REF!</definedName>
-    <definedName name="buildable" localSheetId="8">s_map_tiles!$D$2:$D$10</definedName>
-    <definedName name="buildable">map_tiles!$C$2:$C$10</definedName>
+    <definedName name="buildable" localSheetId="8">s_map_tiles!$D$2:$D$9</definedName>
+    <definedName name="buildable">map_tiles!$C$2:$C$9</definedName>
     <definedName name="buildable_big" localSheetId="4">#REF!</definedName>
     <definedName name="buildable_big" localSheetId="5">#REF!</definedName>
-    <definedName name="buildable_big" localSheetId="8">s_map_tiles!$E$2:$E$10</definedName>
-    <definedName name="buildable_big">map_tiles!$D$2:$D$10</definedName>
+    <definedName name="buildable_big" localSheetId="8">s_map_tiles!$E$2:$E$9</definedName>
+    <definedName name="buildable_big">map_tiles!$D$2:$D$9</definedName>
     <definedName name="direct_water_source" localSheetId="4">#REF!</definedName>
     <definedName name="direct_water_source" localSheetId="5">#REF!</definedName>
-    <definedName name="direct_water_source" localSheetId="8">s_map_tiles!$G$2:$G$10</definedName>
-    <definedName name="direct_water_source">map_tiles!$F$2:$F$10</definedName>
+    <definedName name="direct_water_source" localSheetId="8">s_map_tiles!$G$2:$G$9</definedName>
+    <definedName name="direct_water_source">map_tiles!$F$2:$F$9</definedName>
     <definedName name="names" localSheetId="4">#REF!</definedName>
     <definedName name="names" localSheetId="5">#REF!</definedName>
-    <definedName name="names" localSheetId="8">s_map_tiles!$B$2:$B$10</definedName>
-    <definedName name="names">map_tiles!$B$2:$B$10</definedName>
+    <definedName name="names" localSheetId="8">s_map_tiles!$B$2:$B$9</definedName>
+    <definedName name="names">map_tiles!$B$2:$B$9</definedName>
     <definedName name="number" localSheetId="4">#REF!</definedName>
     <definedName name="number" localSheetId="5">#REF!</definedName>
-    <definedName name="number" localSheetId="8">s_map_tiles!$C$2:$C$10</definedName>
+    <definedName name="number" localSheetId="8">s_map_tiles!$C$2:$C$9</definedName>
     <definedName name="number">map_tiles!#REF!</definedName>
     <definedName name="traversable" localSheetId="4">#REF!</definedName>
     <definedName name="traversable" localSheetId="5">#REF!</definedName>
-    <definedName name="traversable" localSheetId="8">s_map_tiles!$F$2:$F$10</definedName>
-    <definedName name="traversable">map_tiles!$E$2:$E$10</definedName>
+    <definedName name="traversable" localSheetId="8">s_map_tiles!$F$2:$F$9</definedName>
+    <definedName name="traversable">map_tiles!$E$2:$E$9</definedName>
     <definedName name="underground_water_source" localSheetId="4">#REF!</definedName>
     <definedName name="underground_water_source" localSheetId="5">#REF!</definedName>
-    <definedName name="underground_water_source" localSheetId="8">s_map_tiles!$H$2:$H$10</definedName>
-    <definedName name="underground_water_source">map_tiles!$G$2:$G$10</definedName>
+    <definedName name="underground_water_source" localSheetId="8">s_map_tiles!$H$2:$H$9</definedName>
+    <definedName name="underground_water_source">map_tiles!$G$2:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>number</t>
-  </si>
-  <si>
-    <t>River</t>
   </si>
   <si>
     <t>Grass</t>
@@ -1056,58 +1053,33 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-BBBC-4C63-B3E4-A8BC1C9B81D8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>s_map_tiles!$B$2:$B$10</c:f>
+              <c:f>s_map_tiles!$B$2:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>River</c:v>
+                  <c:v>Lake</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Lake</c:v>
+                  <c:v>Swamp</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Swamp</c:v>
+                  <c:v>Wood</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Wood</c:v>
+                  <c:v>Grass</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Grass</c:v>
+                  <c:v>Buildings</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Buildings</c:v>
+                  <c:v>Mountain</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Mountain</c:v>
+                  <c:v>Rocks</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Rocks</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Sand</c:v>
                 </c:pt>
               </c:strCache>
@@ -1115,10 +1087,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>s_map_tiles!$C$2:$C$10</c:f>
+              <c:f>s_map_tiles!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1141,9 +1113,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3097,7 +3066,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3404,406 +3373,406 @@
   <sheetData>
     <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="F1" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="H1" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="I2" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="K3" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="N4" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="M7" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="M8" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="51" t="s">
         <v>62</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>63</v>
       </c>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="50" t="s">
+      <c r="N9" s="51" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>63</v>
       </c>
       <c r="O9" s="11"/>
       <c r="R9" s="12"/>
@@ -3811,101 +3780,101 @@
     </row>
     <row r="10" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="R10" s="41" t="s">
         <v>99</v>
-      </c>
-      <c r="R10" s="41" t="s">
-        <v>100</v>
       </c>
       <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="G11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="50" t="s">
+      <c r="M11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="51" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>63</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="42">
@@ -3914,56 +3883,56 @@
       </c>
       <c r="Q11" s="43">
         <f t="shared" ref="Q11:Q12" ca="1" si="0">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" s="44">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="K12" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="42">
@@ -3972,58 +3941,58 @@
       </c>
       <c r="Q12" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R12" s="45"/>
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="L13" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="46"/>
       <c r="R13" s="45"/>
@@ -4031,51 +4000,51 @@
     </row>
     <row r="14" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="48"/>
@@ -4092,40 +4061,40 @@
         <v>1</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="G15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="H15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="I15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="J15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="53" t="s">
-        <v>20</v>
-      </c>
       <c r="K15" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="54" t="s">
+      <c r="N15" s="54" t="s">
         <v>107</v>
-      </c>
-      <c r="N15" s="54" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -4133,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13">
         <v>3</v>
@@ -4177,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
@@ -4221,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="13">
         <v>3</v>
@@ -4265,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="13">
         <v>3</v>
@@ -4309,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="48">
         <v>3</v>
@@ -4356,10 +4325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EDFAF7-3A54-4002-A96B-C2CBDBF3D89B}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4375,40 +4344,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>20</v>
-      </c>
       <c r="N1" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T1" s="31"/>
     </row>
@@ -4416,50 +4385,50 @@
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14">
-        <v>3</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14">
-        <v>1</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="16"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
       <c r="F3" s="12">
         <v>1</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="12">
-        <v>3</v>
-      </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
+      <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -4468,10 +4437,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -4480,14 +4449,18 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>3</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="13"/>
@@ -4495,15 +4468,17 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
@@ -4516,9 +4491,7 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12">
-        <v>1</v>
-      </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="13"/>
@@ -4526,9 +4499,9 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="11">
@@ -4541,75 +4514,73 @@
         <v>1</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="12">
-        <v>3</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
       <c r="M6" s="12"/>
       <c r="N6" s="13"/>
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>7</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -4618,60 +4589,31 @@
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
-        <v>3</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
+      <c r="B9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="48"/>
       <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>10</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="48"/>
-      <c r="S10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4702,16 +4644,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4719,19 +4661,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="36">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -4739,16 +4681,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="37">
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -4757,19 +4699,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="36">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4777,16 +4719,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="36">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -4795,16 +4737,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="36">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -4813,19 +4755,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4833,19 +4775,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4853,19 +4795,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4885,7 +4827,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="60"/>
       <c r="F1" s="60"/>
@@ -4894,7 +4836,7 @@
       <c r="I1" s="60"/>
       <c r="J1" s="12"/>
       <c r="K1" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="60"/>
       <c r="M1" s="60"/>
@@ -4912,52 +4854,52 @@
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="27" t="s">
-        <v>20</v>
-      </c>
       <c r="R2" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S2" s="30"/>
     </row>
@@ -4966,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5000,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5036,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5076,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5106,14 +5048,14 @@
         <v>-1</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6" s="13"/>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -5121,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5157,7 +5099,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5193,7 +5135,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
@@ -5224,7 +5166,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
@@ -5257,7 +5199,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
@@ -5288,7 +5230,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -5481,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -5495,14 +5437,14 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" ref="D2:D7" si="0">B2/SUM(B:B)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5513,14 +5455,14 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5531,14 +5473,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5549,14 +5491,14 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5567,14 +5509,14 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5585,14 +5527,14 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5624,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5580,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" ref="D2:D23" si="0">B2/SUM(B:B)</f>
@@ -5661,7 +5603,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="33">
         <f t="shared" si="0"/>
@@ -5680,7 +5622,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" si="0"/>
@@ -5699,7 +5641,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
@@ -5718,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
@@ -5737,7 +5679,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
@@ -5756,7 +5698,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
@@ -5775,7 +5717,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
@@ -5794,14 +5736,14 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,14 +5754,14 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>2.7522935779816515E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,14 +5772,14 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
         <v>0.13761467889908258</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,14 +5790,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
         <v>0.11009174311926606</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
@@ -5885,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="33">
         <f t="shared" si="0"/>
@@ -5904,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="33">
         <f t="shared" si="0"/>
@@ -5923,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="33">
         <f t="shared" si="0"/>
@@ -5942,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" si="0"/>
@@ -5961,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="0"/>
@@ -5981,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="33">
         <f t="shared" si="0"/>
@@ -6000,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="33">
         <f t="shared" si="0"/>
@@ -6019,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="33">
         <f t="shared" si="0"/>
@@ -6038,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="33">
         <f t="shared" si="0"/>
@@ -6080,10 +6022,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6091,13 +6033,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6105,13 +6047,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6119,13 +6061,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6133,13 +6075,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6147,13 +6089,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6161,13 +6103,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6175,13 +6117,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6189,13 +6131,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7554,10 +7496,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF0812B-FD6E-4752-AC5F-F1FB101103C6}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7573,49 +7515,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>20</v>
-      </c>
       <c r="O1" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P1" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="58" t="s">
         <v>117</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>118</v>
       </c>
       <c r="U1" s="31"/>
     </row>
@@ -7624,90 +7566,90 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="str">
+      <c r="D2" s="11" t="str">
         <f>IF(ISBLANK(map_tiles!C2),"",map_tiles!C2)</f>
         <v/>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!D2),"",map_tiles!D2)</f>
         <v/>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!E2),"",map_tiles!E2)</f>
         <v/>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <f>IF(ISBLANK(map_tiles!F2),"",map_tiles!F2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="str">
+      <c r="H2" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!G2),"",map_tiles!G2)</f>
         <v/>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <f>IF(ISBLANK(map_tiles!H2),"",map_tiles!H2)</f>
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="str">
+      <c r="J2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I2),"",map_tiles!I2)</f>
         <v/>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="12">
         <f>IF(ISBLANK(map_tiles!J2),"",map_tiles!J2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="14" t="str">
+      <c r="L2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K2),"",map_tiles!K2)</f>
         <v/>
       </c>
-      <c r="M2" s="14" t="str">
+      <c r="M2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L2),"",map_tiles!L2)</f>
         <v/>
       </c>
-      <c r="N2" s="14" t="str">
+      <c r="N2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M2),"",map_tiles!M2)</f>
         <v/>
       </c>
-      <c r="O2" s="16" t="str">
+      <c r="O2" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N2),"",map_tiles!N2)</f>
         <v/>
       </c>
-      <c r="P2" s="15">
-        <f>SUM(D2:O2)</f>
+      <c r="P2" s="11">
+        <f t="shared" ref="P2:P9" si="0">SUM(D2:O2)</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="16">
-        <f>C2*P2</f>
+      <c r="Q2" s="13">
+        <f t="shared" ref="Q2:Q9" si="1">C2*P2</f>
         <v>0</v>
       </c>
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="12">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="11">
         <f>IF(ISBLANK(map_tiles!C3),"",map_tiles!C3)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!D3),"",map_tiles!D3)</f>
         <v/>
       </c>
-      <c r="F3" s="12" t="str">
+      <c r="F3" s="12">
         <f>IF(ISBLANK(map_tiles!E3),"",map_tiles!E3)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G3" s="12">
         <f>IF(ISBLANK(map_tiles!F3),"",map_tiles!F3)</f>
@@ -7717,17 +7659,17 @@
         <f>IF(ISBLANK(map_tiles!G3),"",map_tiles!G3)</f>
         <v/>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!H3),"",map_tiles!H3)</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="J3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I3),"",map_tiles!I3)</f>
         <v/>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!J3),"",map_tiles!J3)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K3),"",map_tiles!K3)</f>
@@ -7746,23 +7688,23 @@
         <v/>
       </c>
       <c r="P3" s="11">
-        <f t="shared" ref="P3:P10" si="0">SUM(D3:O3)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="Q3" s="13">
-        <f t="shared" ref="Q3:Q10" si="1">C3*P3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
         <v>23</v>
       </c>
       <c r="D4" s="11">
@@ -7777,17 +7719,17 @@
         <f>IF(ISBLANK(map_tiles!E4),"",map_tiles!E4)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!F4),"",map_tiles!F4)</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="str">
+        <v/>
+      </c>
+      <c r="H4" s="13">
         <f>IF(ISBLANK(map_tiles!G4),"",map_tiles!G4)</f>
-        <v/>
-      </c>
-      <c r="I4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
         <f>IF(ISBLANK(map_tiles!H4),"",map_tiles!H4)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I4),"",map_tiles!I4)</f>
@@ -7797,9 +7739,9 @@
         <f>IF(ISBLANK(map_tiles!J4),"",map_tiles!J4)</f>
         <v/>
       </c>
-      <c r="L4" s="12" t="str">
+      <c r="L4" s="12">
         <f>IF(ISBLANK(map_tiles!K4),"",map_tiles!K4)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L4),"",map_tiles!L4)</f>
@@ -7815,31 +7757,31 @@
       </c>
       <c r="P4" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="13">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
         <v>76</v>
       </c>
       <c r="D5" s="11">
         <f>IF(ISBLANK(map_tiles!C5),"",map_tiles!C5)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="E5" s="12">
         <f>IF(ISBLANK(map_tiles!D5),"",map_tiles!D5)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F5" s="12">
         <f>IF(ISBLANK(map_tiles!E5),"",map_tiles!E5)</f>
@@ -7865,9 +7807,9 @@
         <f>IF(ISBLANK(map_tiles!J5),"",map_tiles!J5)</f>
         <v/>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K5),"",map_tiles!K5)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M5" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L5),"",map_tiles!L5)</f>
@@ -7893,12 +7835,12 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>97</v>
       </c>
       <c r="D6" s="11">
@@ -7917,29 +7859,29 @@
         <f>IF(ISBLANK(map_tiles!F6),"",map_tiles!F6)</f>
         <v/>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!G6),"",map_tiles!G6)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I6" s="12">
         <f>IF(ISBLANK(map_tiles!H6),"",map_tiles!H6)</f>
-        <v>3</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(ISBLANK(map_tiles!I6),"",map_tiles!I6)</f>
-        <v/>
-      </c>
-      <c r="K6" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
         <f>IF(ISBLANK(map_tiles!J6),"",map_tiles!J6)</f>
-        <v/>
-      </c>
-      <c r="L6" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
         <f>IF(ISBLANK(map_tiles!K6),"",map_tiles!K6)</f>
-        <v/>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
         <f>IF(ISBLANK(map_tiles!L6),"",map_tiles!L6)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N6" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M6),"",map_tiles!M6)</f>
@@ -7951,35 +7893,35 @@
       </c>
       <c r="P6" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="13">
         <f t="shared" si="1"/>
-        <v>679</v>
+        <v>776</v>
       </c>
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
         <v>0</v>
       </c>
       <c r="D7" s="11">
         <f>IF(ISBLANK(map_tiles!C7),"",map_tiles!C7)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!D7),"",map_tiles!D7)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
+        <v/>
+      </c>
+      <c r="F7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!E7),"",map_tiles!E7)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="G7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!F7),"",map_tiles!F7)</f>
@@ -7989,25 +7931,25 @@
         <f>IF(ISBLANK(map_tiles!G7),"",map_tiles!G7)</f>
         <v/>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!H7),"",map_tiles!H7)</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
+        <v/>
+      </c>
+      <c r="J7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I7),"",map_tiles!I7)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K7" s="12">
         <f>IF(ISBLANK(map_tiles!J7),"",map_tiles!J7)</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="12">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K7),"",map_tiles!K7)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="12">
+        <v/>
+      </c>
+      <c r="M7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L7),"",map_tiles!L7)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="N7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M7),"",map_tiles!M7)</f>
@@ -8019,7 +7961,7 @@
       </c>
       <c r="P7" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="1"/>
@@ -8029,25 +7971,25 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="11">
         <f>IF(ISBLANK(map_tiles!C8),"",map_tiles!C8)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="12">
         <f>IF(ISBLANK(map_tiles!D8),"",map_tiles!D8)</f>
-        <v/>
-      </c>
-      <c r="F8" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
         <f>IF(ISBLANK(map_tiles!E8),"",map_tiles!E8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G8" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!F8),"",map_tiles!F8)</f>
@@ -8067,7 +8009,7 @@
       </c>
       <c r="K8" s="12">
         <f>IF(ISBLANK(map_tiles!J8),"",map_tiles!J8)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K8),"",map_tiles!K8)</f>
@@ -8087,7 +8029,7 @@
       </c>
       <c r="P8" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="13">
         <f t="shared" si="1"/>
@@ -8096,13 +8038,13 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="B9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="48">
         <v>0</v>
       </c>
       <c r="D9" s="11">
@@ -8133,9 +8075,9 @@
         <f>IF(ISBLANK(map_tiles!I9),"",map_tiles!I9)</f>
         <v/>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!J9),"",map_tiles!J9)</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="L9" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K9),"",map_tiles!K9)</f>
@@ -8153,191 +8095,123 @@
         <f>IF(ISBLANK(map_tiles!N9),"",map_tiles!N9)</f>
         <v/>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q9" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="A10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <f>SUMPRODUCT(number,D2:D9)</f>
+        <v>196</v>
+      </c>
+      <c r="E10" s="14">
+        <f>SUMPRODUCT(number,E2:E9)</f>
+        <v>173</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUMPRODUCT(number,F2:F9)</f>
+        <v>196</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUMPRODUCT(number,G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="11">
-        <f>IF(ISBLANK(map_tiles!C10),"",map_tiles!C10)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <f>IF(ISBLANK(map_tiles!D10),"",map_tiles!D10)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <f>IF(ISBLANK(map_tiles!E10),"",map_tiles!E10)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!F10),"",map_tiles!F10)</f>
-        <v/>
-      </c>
-      <c r="H10" s="13" t="str">
-        <f>IF(ISBLANK(map_tiles!G10),"",map_tiles!G10)</f>
-        <v/>
-      </c>
-      <c r="I10" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!H10),"",map_tiles!H10)</f>
-        <v/>
-      </c>
-      <c r="J10" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!I10),"",map_tiles!I10)</f>
-        <v/>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!J10),"",map_tiles!J10)</f>
-        <v/>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!K10),"",map_tiles!K10)</f>
-        <v/>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!L10),"",map_tiles!L10)</f>
-        <v/>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!M10),"",map_tiles!M10)</f>
-        <v/>
-      </c>
-      <c r="O10" s="13" t="str">
-        <f>IF(ISBLANK(map_tiles!N10),"",map_tiles!N10)</f>
-        <v/>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q10" s="48">
-        <f t="shared" si="1"/>
+      <c r="H10" s="16">
+        <f>SUMPRODUCT(number,H2:H9)</f>
+        <v>99</v>
+      </c>
+      <c r="I10" s="14">
+        <f>SUMPRODUCT(number,I2:I9)</f>
+        <v>394</v>
+      </c>
+      <c r="J10" s="14">
+        <f>SUMPRODUCT(number,J2:J9)</f>
+        <v>97</v>
+      </c>
+      <c r="K10" s="14">
+        <f>SUMPRODUCT(number,K2:K9)</f>
+        <v>97</v>
+      </c>
+      <c r="L10" s="14">
+        <f>SUMPRODUCT(number,L2:L9)</f>
+        <v>120</v>
+      </c>
+      <c r="M10" s="14">
+        <f>SUMPRODUCT(number,M2:M9)</f>
+        <v>97</v>
+      </c>
+      <c r="N10" s="14">
+        <f>SUMPRODUCT(number,N2:N9)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="12"/>
+      <c r="O10" s="16">
+        <f>SUMPRODUCT(number,O2:O9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15">
-        <f>SUMPRODUCT(number,D2:D10)</f>
-        <v>196</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" ref="E11:O11" si="2">SUMPRODUCT(number,E2:E10)</f>
-        <v>97</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21">
+        <f t="shared" ref="D11:O11" si="2">D10/SUM(number)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
         <f t="shared" si="2"/>
-        <v>196</v>
-      </c>
-      <c r="G11" s="14">
+        <v>0.88265306122448983</v>
+      </c>
+      <c r="F11" s="19">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="H11" s="16">
-        <f t="shared" si="2"/>
-        <v>173</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="2"/>
-        <v>519</v>
-      </c>
-      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="H11" s="20">
+        <f t="shared" si="2"/>
+        <v>0.50510204081632648</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="2"/>
+        <v>2.010204081632653</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="2"/>
+        <v>0.49489795918367346</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="2"/>
+        <v>0.49489795918367346</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="2"/>
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="2"/>
+        <v>0.49489795918367346</v>
+      </c>
+      <c r="N11" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="14">
+      <c r="O11" s="20">
         <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21">
-        <f t="shared" ref="D12:O12" si="3">D11/SUM(number)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="19">
-        <f t="shared" si="3"/>
-        <v>0.49489795918367346</v>
-      </c>
-      <c r="F12" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
-        <f t="shared" si="3"/>
-        <v>0.11734693877551021</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="3"/>
-        <v>0.88265306122448983</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="3"/>
-        <v>2.6479591836734695</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="19">
-        <f t="shared" si="3"/>
-        <v>0.38775510204081631</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/game.xlsx
+++ b/game.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9D790-4410-41BB-9434-3CD42876B00F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1F384C-6711-416F-B000-1B55092CA1AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="10" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -187,9 +187,6 @@
     <t>well</t>
   </si>
   <si>
-    <t>farmacy</t>
-  </si>
-  <si>
     <t>workshop</t>
   </si>
   <si>
@@ -449,6 +446,12 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pharmacy</t>
   </si>
 </sst>
 </file>
@@ -847,8 +850,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Tile type distribution</a:t>
+              <a:t>Tile</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> types</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1218,6 +1226,412 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Resource production</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2CB7-4215-A448-9AF1989B785B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>s_map_tiles!$I$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>water</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>food</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medicines</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rock</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wood</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tools</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>weapons</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>information</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>s_map_tiles!$I$10:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-2CB7-4215-A448-9AF1989B785B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1258,7 +1672,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3058,13 +4031,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3089,6 +4062,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D898E698-9D06-4B30-BD78-3C8A41C96594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3373,406 +4384,406 @@
   <sheetData>
     <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="F1" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="H1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="I2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="K3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="N4" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="M7" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="M8" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="51" t="s">
         <v>61</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>62</v>
       </c>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="50" t="s">
+      <c r="N9" s="51" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>62</v>
       </c>
       <c r="O9" s="11"/>
       <c r="R9" s="12"/>
@@ -3780,159 +4791,159 @@
     </row>
     <row r="10" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="R10" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="R10" s="41" t="s">
-        <v>99</v>
       </c>
       <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="G11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="50" t="s">
+      <c r="M11" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="51" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>62</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="42">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="43">
         <f t="shared" ref="Q11:Q12" ca="1" si="0">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11" s="44">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="K12" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="42">
@@ -3941,58 +4952,58 @@
       </c>
       <c r="Q12" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12" s="45"/>
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>62</v>
-      </c>
       <c r="L13" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="46"/>
       <c r="R13" s="45"/>
@@ -4000,46 +5011,46 @@
     </row>
     <row r="14" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="47">
@@ -4061,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>9</v>
@@ -4088,13 +5099,13 @@
         <v>24</v>
       </c>
       <c r="L15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="M15" s="54" t="s">
+      <c r="N15" s="54" t="s">
         <v>106</v>
-      </c>
-      <c r="N15" s="54" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -4102,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="13">
         <v>3</v>
@@ -4146,7 +5157,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
@@ -4190,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="13">
         <v>3</v>
@@ -4234,7 +5245,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="13">
         <v>3</v>
@@ -4278,7 +5289,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="48">
         <v>3</v>
@@ -4328,7 +5339,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4551,7 +5562,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -4580,7 +5591,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -4625,7 +5636,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4644,16 +5655,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4670,10 +5681,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -4690,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -4705,13 +5716,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4728,7 +5739,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -4746,7 +5757,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -4764,10 +5775,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4784,10 +5795,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4804,10 +5815,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4819,15 +5830,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5531790B-02F5-4EEF-93DC-68D09484BB8E}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="60"/>
       <c r="F1" s="60"/>
@@ -4836,7 +5847,7 @@
       <c r="I1" s="60"/>
       <c r="J1" s="12"/>
       <c r="K1" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="60"/>
       <c r="M1" s="60"/>
@@ -4854,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>14</v>
@@ -4942,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4978,7 +5989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5018,7 +6029,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5048,14 +6059,14 @@
         <v>-1</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R6" s="13"/>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -5063,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5099,7 +6110,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5135,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
@@ -5166,7 +6177,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
@@ -5199,7 +6210,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
@@ -5230,7 +6241,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -5423,10 +6434,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -5437,14 +6448,14 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" ref="D2:D7" si="0">B2/SUM(B:B)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5455,14 +6466,14 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5473,14 +6484,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5491,14 +6502,14 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5509,14 +6520,14 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5527,14 +6538,14 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5566,10 +6577,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +6591,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="33">
         <f t="shared" ref="D2:D23" si="0">B2/SUM(B:B)</f>
@@ -5603,7 +6614,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="33">
         <f t="shared" si="0"/>
@@ -5622,7 +6633,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" si="0"/>
@@ -5641,7 +6652,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
@@ -5660,7 +6671,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
@@ -5679,7 +6690,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
@@ -5698,7 +6709,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
@@ -5717,7 +6728,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
@@ -5736,14 +6747,14 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,14 +6765,14 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>2.7522935779816515E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,14 +6783,14 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
         <v>0.13761467889908258</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,14 +6801,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
         <v>0.11009174311926606</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,7 +6819,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
@@ -5827,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="33">
         <f t="shared" si="0"/>
@@ -5846,7 +6857,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="33">
         <f t="shared" si="0"/>
@@ -5854,7 +6865,7 @@
       </c>
       <c r="E16" t="str">
         <f>_xlfn.CONCAT(_xlfn.CONCAT("You found a ",UPPER(buildings!B5)),"! Place it in whichever building (not necessarily yours) or tile you want")</f>
-        <v>You found a FARMACY! Place it in whichever building (not necessarily yours) or tile you want</v>
+        <v>You found a PHARMACY! Place it in whichever building (not necessarily yours) or tile you want</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -5865,7 +6876,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="33">
         <f t="shared" si="0"/>
@@ -5884,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" si="0"/>
@@ -5903,7 +6914,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="0"/>
@@ -5923,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="33">
         <f t="shared" si="0"/>
@@ -5942,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="33">
         <f t="shared" si="0"/>
@@ -5961,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="33">
         <f t="shared" si="0"/>
@@ -5980,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="33">
         <f t="shared" si="0"/>
@@ -6022,10 +7033,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6033,13 +7044,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6050,10 +7061,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6064,10 +7075,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6078,10 +7089,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6092,10 +7103,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6106,10 +7117,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6120,10 +7131,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6134,10 +7145,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7496,18 +8507,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF0812B-FD6E-4752-AC5F-F1FB101103C6}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="15" width="5.6640625" customWidth="1"/>
+    <col min="4" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7515,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>12</v>
@@ -7533,35 +8544,38 @@
         <v>26</v>
       </c>
       <c r="I1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="Q1" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" s="31"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="31"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -7591,45 +8605,45 @@
         <f>IF(ISBLANK(map_tiles!G2),"",map_tiles!G2)</f>
         <v/>
       </c>
-      <c r="I2" s="12">
-        <f>IF(ISBLANK(map_tiles!H2),"",map_tiles!H2)</f>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12">
         <v>3</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="K2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I2),"",map_tiles!I2)</f>
         <v/>
       </c>
-      <c r="K2" s="12">
+      <c r="L2" s="12">
         <f>IF(ISBLANK(map_tiles!J2),"",map_tiles!J2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="str">
+      <c r="M2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K2),"",map_tiles!K2)</f>
         <v/>
       </c>
-      <c r="M2" s="12" t="str">
+      <c r="N2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L2),"",map_tiles!L2)</f>
         <v/>
       </c>
-      <c r="N2" s="12" t="str">
+      <c r="O2" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M2),"",map_tiles!M2)</f>
         <v/>
       </c>
-      <c r="O2" s="13" t="str">
+      <c r="P2" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N2),"",map_tiles!N2)</f>
         <v/>
       </c>
-      <c r="P2" s="11">
-        <f t="shared" ref="P2:P9" si="0">SUM(D2:O2)</f>
+      <c r="Q2" s="11">
+        <f t="shared" ref="Q2:Q9" si="0">SUM(D2:P2)</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="13">
-        <f t="shared" ref="Q2:Q9" si="1">C2*P2</f>
+      <c r="R2" s="13">
+        <f t="shared" ref="R2:R9" si="1">C2*Q2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -7659,45 +8673,45 @@
         <f>IF(ISBLANK(map_tiles!G3),"",map_tiles!G3)</f>
         <v/>
       </c>
-      <c r="I3" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!H3),"",map_tiles!H3)</f>
-        <v/>
-      </c>
-      <c r="J3" s="12" t="str">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I3),"",map_tiles!I3)</f>
         <v/>
       </c>
-      <c r="K3" s="12" t="str">
+      <c r="L3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!J3),"",map_tiles!J3)</f>
         <v/>
       </c>
-      <c r="L3" s="12" t="str">
+      <c r="M3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K3),"",map_tiles!K3)</f>
         <v/>
       </c>
-      <c r="M3" s="12" t="str">
+      <c r="N3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L3),"",map_tiles!L3)</f>
         <v/>
       </c>
-      <c r="N3" s="12" t="str">
+      <c r="O3" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M3),"",map_tiles!M3)</f>
         <v/>
       </c>
-      <c r="O3" s="13" t="str">
+      <c r="P3" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N3),"",map_tiles!N3)</f>
         <v/>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="R3" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -7727,45 +8741,45 @@
         <f>IF(ISBLANK(map_tiles!G4),"",map_tiles!G4)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="12">
-        <f>IF(ISBLANK(map_tiles!H4),"",map_tiles!H4)</f>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12">
         <v>3</v>
       </c>
-      <c r="J4" s="12" t="str">
+      <c r="K4" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I4),"",map_tiles!I4)</f>
         <v/>
       </c>
-      <c r="K4" s="12" t="str">
+      <c r="L4" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!J4),"",map_tiles!J4)</f>
         <v/>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="12">
         <f>IF(ISBLANK(map_tiles!K4),"",map_tiles!K4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="12" t="str">
+      <c r="N4" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L4),"",map_tiles!L4)</f>
         <v/>
       </c>
-      <c r="N4" s="12" t="str">
+      <c r="O4" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M4),"",map_tiles!M4)</f>
         <v/>
       </c>
-      <c r="O4" s="13" t="str">
+      <c r="P4" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N4),"",map_tiles!N4)</f>
         <v/>
       </c>
-      <c r="P4" s="11">
+      <c r="Q4" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="R4" s="13">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -7795,45 +8809,45 @@
         <f>IF(ISBLANK(map_tiles!G5),"",map_tiles!G5)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="12">
-        <f>IF(ISBLANK(map_tiles!H5),"",map_tiles!H5)</f>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
         <v>3</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="K5" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I5),"",map_tiles!I5)</f>
         <v/>
       </c>
-      <c r="K5" s="12" t="str">
+      <c r="L5" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!J5),"",map_tiles!J5)</f>
         <v/>
       </c>
-      <c r="L5" s="12" t="str">
+      <c r="M5" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K5),"",map_tiles!K5)</f>
         <v/>
       </c>
-      <c r="M5" s="12" t="str">
+      <c r="N5" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L5),"",map_tiles!L5)</f>
         <v/>
       </c>
-      <c r="N5" s="12" t="str">
+      <c r="O5" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M5),"",map_tiles!M5)</f>
         <v/>
       </c>
-      <c r="O5" s="13" t="str">
+      <c r="P5" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N5),"",map_tiles!N5)</f>
         <v/>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="R5" s="13">
         <f t="shared" si="1"/>
         <v>532</v>
       </c>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -7868,40 +8882,43 @@
         <v>1</v>
       </c>
       <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
         <f>IF(ISBLANK(map_tiles!I6),"",map_tiles!I6)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <f>IF(ISBLANK(map_tiles!J6),"",map_tiles!J6)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <f>IF(ISBLANK(map_tiles!K6),"",map_tiles!K6)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <f>IF(ISBLANK(map_tiles!L6),"",map_tiles!L6)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="12" t="str">
+      <c r="O6" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M6),"",map_tiles!M6)</f>
         <v/>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="P6" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N6),"",map_tiles!N6)</f>
         <v/>
       </c>
-      <c r="P6" s="11">
+      <c r="Q6" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q6" s="13">
+        <v>9</v>
+      </c>
+      <c r="R6" s="13">
         <f t="shared" si="1"/>
-        <v>776</v>
-      </c>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -7935,41 +8952,42 @@
         <f>IF(ISBLANK(map_tiles!H7),"",map_tiles!H7)</f>
         <v/>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I7),"",map_tiles!I7)</f>
         <v/>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <f>IF(ISBLANK(map_tiles!J7),"",map_tiles!J7)</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f>IF(ISBLANK(map_tiles!K7),"",map_tiles!K7)</f>
+        <v/>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>IF(ISBLANK(map_tiles!L7),"",map_tiles!L7)</f>
+        <v/>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>IF(ISBLANK(map_tiles!M7),"",map_tiles!M7)</f>
+        <v/>
+      </c>
+      <c r="P7" s="13" t="str">
+        <f>IF(ISBLANK(map_tiles!N7),"",map_tiles!N7)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L7" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!K7),"",map_tiles!K7)</f>
-        <v/>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!L7),"",map_tiles!L7)</f>
-        <v/>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f>IF(ISBLANK(map_tiles!M7),"",map_tiles!M7)</f>
-        <v/>
-      </c>
-      <c r="O7" s="13" t="str">
-        <f>IF(ISBLANK(map_tiles!N7),"",map_tiles!N7)</f>
-        <v/>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -8003,41 +9021,42 @@
         <f>IF(ISBLANK(map_tiles!H8),"",map_tiles!H8)</f>
         <v/>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I8),"",map_tiles!I8)</f>
         <v/>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <f>IF(ISBLANK(map_tiles!J8),"",map_tiles!J8)</f>
-        <v>3</v>
-      </c>
-      <c r="L8" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K8),"",map_tiles!K8)</f>
         <v/>
       </c>
-      <c r="M8" s="12" t="str">
+      <c r="N8" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L8),"",map_tiles!L8)</f>
         <v/>
       </c>
-      <c r="N8" s="12" t="str">
+      <c r="O8" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M8),"",map_tiles!M8)</f>
         <v/>
       </c>
-      <c r="O8" s="13" t="str">
+      <c r="P8" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N8),"",map_tiles!N8)</f>
         <v/>
       </c>
-      <c r="P8" s="11">
+      <c r="Q8" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q8" s="13">
+        <v>7</v>
+      </c>
+      <c r="R8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -8071,147 +9090,156 @@
         <f>IF(ISBLANK(map_tiles!H9),"",map_tiles!H9)</f>
         <v/>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!I9),"",map_tiles!I9)</f>
         <v/>
       </c>
-      <c r="K9" s="12" t="str">
+      <c r="L9" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!J9),"",map_tiles!J9)</f>
         <v/>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="M9" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!K9),"",map_tiles!K9)</f>
         <v/>
       </c>
-      <c r="M9" s="12" t="str">
+      <c r="N9" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!L9),"",map_tiles!L9)</f>
         <v/>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="O9" s="12" t="str">
         <f>IF(ISBLANK(map_tiles!M9),"",map_tiles!M9)</f>
         <v/>
       </c>
-      <c r="O9" s="13" t="str">
+      <c r="P9" s="13" t="str">
         <f>IF(ISBLANK(map_tiles!N9),"",map_tiles!N9)</f>
         <v/>
       </c>
-      <c r="P9" s="17">
+      <c r="Q9" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="R9" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15">
-        <f>SUMPRODUCT(number,D2:D9)</f>
+        <f t="shared" ref="D10:P10" si="2">SUMPRODUCT(number,D2:D9)</f>
         <v>196</v>
       </c>
       <c r="E10" s="14">
-        <f>SUMPRODUCT(number,E2:E9)</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="F10" s="14">
-        <f>SUMPRODUCT(number,F2:F9)</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="G10" s="14">
-        <f>SUMPRODUCT(number,G2:G9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="16">
-        <f>SUMPRODUCT(number,H2:H9)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I10" s="14">
-        <f>SUMPRODUCT(number,I2:I9)</f>
-        <v>394</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="J10" s="14">
         <f>SUMPRODUCT(number,J2:J9)</f>
+        <v>394</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="K10" s="14">
-        <f>SUMPRODUCT(number,K2:K9)</f>
+      <c r="L10" s="14">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="L10" s="14">
-        <f>SUMPRODUCT(number,L2:L9)</f>
+      <c r="M10" s="14">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="M10" s="14">
-        <f>SUMPRODUCT(number,M2:M9)</f>
+      <c r="N10" s="14">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="N10" s="14">
-        <f>SUMPRODUCT(number,N2:N9)</f>
+      <c r="O10" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="16">
-        <f>SUMPRODUCT(number,O2:O9)</f>
+      <c r="P10" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="21">
-        <f t="shared" ref="D11:O11" si="2">D10/SUM(number)</f>
+        <f t="shared" ref="D11:P11" si="3">D10/SUM(number)</f>
         <v>1</v>
       </c>
       <c r="E11" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88265306122448983</v>
       </c>
       <c r="F11" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50510204081632648</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0.49489795918367346</v>
+      </c>
+      <c r="J11" s="19">
+        <f>J10/SUM(number)</f>
         <v>2.010204081632653</v>
       </c>
-      <c r="J11" s="19">
-        <f t="shared" si="2"/>
+      <c r="K11" s="19">
+        <f t="shared" si="3"/>
         <v>0.49489795918367346</v>
       </c>
-      <c r="K11" s="19">
-        <f t="shared" si="2"/>
+      <c r="L11" s="19">
+        <f t="shared" si="3"/>
         <v>0.49489795918367346</v>
       </c>
-      <c r="L11" s="19">
-        <f t="shared" si="2"/>
+      <c r="M11" s="19">
+        <f t="shared" si="3"/>
         <v>0.61224489795918369</v>
       </c>
-      <c r="M11" s="19">
-        <f t="shared" si="2"/>
+      <c r="N11" s="19">
+        <f t="shared" si="3"/>
         <v>0.49489795918367346</v>
       </c>
-      <c r="N11" s="19">
-        <f t="shared" si="2"/>
+      <c r="O11" s="19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="20">
-        <f t="shared" si="2"/>
+      <c r="P11" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
